--- a/Panera Ecopax PET cup Inventory File.xlsx
+++ b/Panera Ecopax PET cup Inventory File.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmattison\Desktop\ecopax-shipping-updater\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE53B1B-E3FB-458F-8C0C-947484939F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AECCB55-5185-47D9-8616-B9D99F8F449D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{0CC7CF84-7F5B-44F7-A75B-299409CA5A70}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{0CC7CF84-7F5B-44F7-A75B-299409CA5A70}"/>
   </bookViews>
   <sheets>
     <sheet name="16oz Cup" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="105">
   <si>
     <t>Date</t>
   </si>
@@ -367,9 +367,6 @@
     <t>DFSU6935165</t>
   </si>
   <si>
-    <t xml:space="preserve">CMA </t>
-  </si>
-  <si>
     <t>ECMU9870539</t>
   </si>
   <si>
@@ -440,7 +437,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -885,6 +882,35 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -909,35 +935,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -954,10 +951,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1260,10 +1253,10 @@
   <dimension ref="A1:L136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="C94" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="L38" sqref="L38"/>
+      <selection pane="bottomRight" activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1275,25 +1268,25 @@
     <col min="5" max="5" width="16.7109375" style="7" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" style="7" customWidth="1"/>
     <col min="7" max="7" width="16.140625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="95" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="87" customWidth="1"/>
     <col min="9" max="10" width="15.5703125" style="4" customWidth="1"/>
     <col min="11" max="11" width="42.5703125" style="4" customWidth="1"/>
     <col min="12" max="12" width="41.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
       <c r="K1" s="1"/>
       <c r="L1" s="2"/>
     </row>
@@ -1343,13 +1336,13 @@
         <v>64</v>
       </c>
       <c r="G4" s="46"/>
-      <c r="H4" s="79" t="s">
+      <c r="H4" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="47"/>
@@ -1367,11 +1360,11 @@
         <v>200</v>
       </c>
       <c r="G5" s="52"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="82"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="95"/>
     </row>
     <row r="6" spans="1:12" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
@@ -1395,7 +1388,7 @@
       <c r="G6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="96" t="s">
+      <c r="H6" s="88" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="11" t="s">
@@ -1424,7 +1417,7 @@
       <c r="G7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="97" t="s">
+      <c r="H7" s="89" t="s">
         <v>13</v>
       </c>
       <c r="I7" s="10">
@@ -1453,7 +1446,7 @@
       <c r="G8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="97" t="s">
+      <c r="H8" s="89" t="s">
         <v>15</v>
       </c>
       <c r="I8" s="10">
@@ -1482,7 +1475,7 @@
       <c r="G9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="97" t="s">
+      <c r="H9" s="89" t="s">
         <v>16</v>
       </c>
       <c r="I9" s="10">
@@ -1513,7 +1506,7 @@
       <c r="G10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="97" t="s">
+      <c r="H10" s="89" t="s">
         <v>18</v>
       </c>
       <c r="I10" s="10">
@@ -1543,7 +1536,7 @@
         <v>1530</v>
       </c>
       <c r="G11" s="9"/>
-      <c r="H11" s="98"/>
+      <c r="H11" s="90"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
@@ -1565,7 +1558,7 @@
         <v>1530</v>
       </c>
       <c r="G12" s="9"/>
-      <c r="H12" s="97"/>
+      <c r="H12" s="89"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
@@ -1587,7 +1580,7 @@
         <v>1530</v>
       </c>
       <c r="G13" s="9"/>
-      <c r="H13" s="97"/>
+      <c r="H13" s="89"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
@@ -1609,7 +1602,7 @@
         <v>1530</v>
       </c>
       <c r="G14" s="9"/>
-      <c r="H14" s="97"/>
+      <c r="H14" s="89"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
@@ -1631,7 +1624,7 @@
         <v>1530</v>
       </c>
       <c r="G15" s="9"/>
-      <c r="H15" s="97"/>
+      <c r="H15" s="89"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
@@ -1653,7 +1646,7 @@
         <v>1530</v>
       </c>
       <c r="G16" s="9"/>
-      <c r="H16" s="97"/>
+      <c r="H16" s="89"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
@@ -1675,7 +1668,7 @@
         <v>1530</v>
       </c>
       <c r="G17" s="9"/>
-      <c r="H17" s="97"/>
+      <c r="H17" s="89"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
@@ -1697,7 +1690,7 @@
         <v>1530</v>
       </c>
       <c r="G18" s="9"/>
-      <c r="H18" s="97"/>
+      <c r="H18" s="89"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
@@ -1719,7 +1712,7 @@
         <v>1530</v>
       </c>
       <c r="G19" s="9"/>
-      <c r="H19" s="97"/>
+      <c r="H19" s="89"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
@@ -1741,7 +1734,7 @@
         <v>1530</v>
       </c>
       <c r="G20" s="9"/>
-      <c r="H20" s="97"/>
+      <c r="H20" s="89"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
@@ -1763,7 +1756,7 @@
         <v>1530</v>
       </c>
       <c r="G21" s="9"/>
-      <c r="H21" s="97"/>
+      <c r="H21" s="89"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
@@ -1785,7 +1778,7 @@
         <v>1530</v>
       </c>
       <c r="G22" s="9"/>
-      <c r="H22" s="97"/>
+      <c r="H22" s="89"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
@@ -1807,7 +1800,7 @@
         <v>1530</v>
       </c>
       <c r="G23" s="9"/>
-      <c r="H23" s="97"/>
+      <c r="H23" s="89"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
@@ -1829,7 +1822,7 @@
         <v>1530</v>
       </c>
       <c r="G24" s="9"/>
-      <c r="H24" s="97"/>
+      <c r="H24" s="89"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
@@ -1851,7 +1844,7 @@
         <v>1530</v>
       </c>
       <c r="G25" s="9"/>
-      <c r="H25" s="97"/>
+      <c r="H25" s="89"/>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
@@ -1873,7 +1866,7 @@
         <v>1530</v>
       </c>
       <c r="G26" s="9"/>
-      <c r="H26" s="97"/>
+      <c r="H26" s="89"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
@@ -1895,7 +1888,7 @@
         <v>1530</v>
       </c>
       <c r="G27" s="9"/>
-      <c r="H27" s="97"/>
+      <c r="H27" s="89"/>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
@@ -1917,7 +1910,7 @@
         <v>1530</v>
       </c>
       <c r="G28" s="9"/>
-      <c r="H28" s="97"/>
+      <c r="H28" s="89"/>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
@@ -1939,7 +1932,7 @@
         <v>1530</v>
       </c>
       <c r="G29" s="9"/>
-      <c r="H29" s="97"/>
+      <c r="H29" s="89"/>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
@@ -1961,7 +1954,7 @@
         <v>1530</v>
       </c>
       <c r="G30" s="9"/>
-      <c r="H30" s="97"/>
+      <c r="H30" s="89"/>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
@@ -1983,7 +1976,7 @@
         <v>1530</v>
       </c>
       <c r="G31" s="9"/>
-      <c r="H31" s="97"/>
+      <c r="H31" s="89"/>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
@@ -2005,7 +1998,7 @@
         <v>1530</v>
       </c>
       <c r="G32" s="9"/>
-      <c r="H32" s="97"/>
+      <c r="H32" s="89"/>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
@@ -2027,7 +2020,7 @@
         <v>1530</v>
       </c>
       <c r="G33" s="9"/>
-      <c r="H33" s="97"/>
+      <c r="H33" s="89"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
@@ -2049,14 +2042,14 @@
         <v>1530</v>
       </c>
       <c r="G34" s="9"/>
-      <c r="H34" s="97"/>
+      <c r="H34" s="89"/>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="90">
+      <c r="A35" s="82">
         <v>44712</v>
       </c>
       <c r="B35" s="73">
@@ -2070,14 +2063,14 @@
         <v>1647</v>
       </c>
       <c r="G35" s="9"/>
-      <c r="H35" s="97"/>
-      <c r="I35" s="88"/>
+      <c r="H35" s="89"/>
+      <c r="I35" s="80"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="91">
+      <c r="A36" s="83">
         <v>44713</v>
       </c>
       <c r="B36" s="14">
@@ -2092,14 +2085,14 @@
         <v>1647</v>
       </c>
       <c r="G36" s="9"/>
-      <c r="H36" s="97"/>
-      <c r="I36" s="88"/>
+      <c r="H36" s="89"/>
+      <c r="I36" s="80"/>
       <c r="J36" s="9"/>
       <c r="K36" s="16"/>
       <c r="L36" s="16"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="91">
+      <c r="A37" s="83">
         <v>44714</v>
       </c>
       <c r="B37" s="14">
@@ -2114,14 +2107,14 @@
         <v>1647</v>
       </c>
       <c r="G37" s="9"/>
-      <c r="H37" s="97"/>
-      <c r="I37" s="88"/>
+      <c r="H37" s="89"/>
+      <c r="I37" s="80"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="92">
+      <c r="A38" s="84">
         <v>44715</v>
       </c>
       <c r="B38" s="14">
@@ -2136,14 +2129,14 @@
         <v>1647</v>
       </c>
       <c r="G38" s="9"/>
-      <c r="H38" s="97"/>
-      <c r="I38" s="88"/>
+      <c r="H38" s="89"/>
+      <c r="I38" s="80"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="91">
+      <c r="A39" s="83">
         <v>44716</v>
       </c>
       <c r="B39" s="14">
@@ -2158,14 +2151,14 @@
         <v>1647</v>
       </c>
       <c r="G39" s="9"/>
-      <c r="H39" s="97"/>
-      <c r="I39" s="88"/>
+      <c r="H39" s="89"/>
+      <c r="I39" s="80"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="91">
+      <c r="A40" s="83">
         <v>44717</v>
       </c>
       <c r="B40" s="14">
@@ -2180,14 +2173,14 @@
         <v>1647</v>
       </c>
       <c r="G40" s="9"/>
-      <c r="H40" s="97"/>
-      <c r="I40" s="88"/>
+      <c r="H40" s="89"/>
+      <c r="I40" s="80"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="91">
+      <c r="A41" s="83">
         <v>44718</v>
       </c>
       <c r="B41" s="14">
@@ -2202,14 +2195,14 @@
         <v>1647</v>
       </c>
       <c r="G41" s="9"/>
-      <c r="H41" s="97"/>
-      <c r="I41" s="88"/>
+      <c r="H41" s="89"/>
+      <c r="I41" s="80"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="91">
+      <c r="A42" s="83">
         <v>44719</v>
       </c>
       <c r="B42" s="14">
@@ -2224,14 +2217,14 @@
         <v>1647</v>
       </c>
       <c r="G42" s="9"/>
-      <c r="H42" s="97"/>
-      <c r="I42" s="88"/>
+      <c r="H42" s="89"/>
+      <c r="I42" s="80"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="91">
+      <c r="A43" s="83">
         <v>44720</v>
       </c>
       <c r="B43" s="14">
@@ -2248,14 +2241,14 @@
         <v>1557</v>
       </c>
       <c r="G43" s="9"/>
-      <c r="H43" s="97"/>
-      <c r="I43" s="88"/>
+      <c r="H43" s="89"/>
+      <c r="I43" s="80"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="91">
+      <c r="A44" s="83">
         <v>44721</v>
       </c>
       <c r="B44" s="14">
@@ -2270,14 +2263,14 @@
         <v>1557</v>
       </c>
       <c r="G44" s="9"/>
-      <c r="H44" s="97"/>
-      <c r="I44" s="88"/>
+      <c r="H44" s="89"/>
+      <c r="I44" s="80"/>
       <c r="J44" s="9"/>
       <c r="K44" s="17"/>
       <c r="L44" s="17"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="91">
+      <c r="A45" s="83">
         <v>44722</v>
       </c>
       <c r="B45" s="14">
@@ -2294,8 +2287,8 @@
         <v>1347</v>
       </c>
       <c r="G45" s="9"/>
-      <c r="H45" s="97"/>
-      <c r="I45" s="88"/>
+      <c r="H45" s="89"/>
+      <c r="I45" s="80"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9" t="s">
         <v>3</v>
@@ -2305,7 +2298,7 @@
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="91">
+      <c r="A46" s="83">
         <v>44723</v>
       </c>
       <c r="B46" s="14">
@@ -2320,14 +2313,14 @@
         <v>1347</v>
       </c>
       <c r="G46" s="9"/>
-      <c r="H46" s="97"/>
-      <c r="I46" s="88"/>
+      <c r="H46" s="89"/>
+      <c r="I46" s="80"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="91">
+      <c r="A47" s="83">
         <v>44724</v>
       </c>
       <c r="B47" s="14">
@@ -2342,14 +2335,14 @@
         <v>1347</v>
       </c>
       <c r="G47" s="9"/>
-      <c r="H47" s="97"/>
-      <c r="I47" s="88"/>
+      <c r="H47" s="89"/>
+      <c r="I47" s="80"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="92">
+      <c r="A48" s="84">
         <v>44725</v>
       </c>
       <c r="B48" s="14">
@@ -2364,14 +2357,14 @@
         <v>1347</v>
       </c>
       <c r="G48" s="9"/>
-      <c r="H48" s="97"/>
-      <c r="I48" s="88"/>
+      <c r="H48" s="89"/>
+      <c r="I48" s="80"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="91">
+      <c r="A49" s="83">
         <v>44726</v>
       </c>
       <c r="B49" s="14">
@@ -2386,14 +2379,14 @@
         <v>1347</v>
       </c>
       <c r="G49" s="9"/>
-      <c r="H49" s="97"/>
-      <c r="I49" s="88"/>
+      <c r="H49" s="89"/>
+      <c r="I49" s="80"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="91">
+      <c r="A50" s="83">
         <v>44727</v>
       </c>
       <c r="B50" s="14">
@@ -2408,14 +2401,14 @@
         <v>1347</v>
       </c>
       <c r="G50" s="9"/>
-      <c r="H50" s="97"/>
-      <c r="I50" s="88"/>
+      <c r="H50" s="89"/>
+      <c r="I50" s="80"/>
       <c r="J50" s="9"/>
       <c r="K50" s="17"/>
       <c r="L50" s="17"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="91">
+      <c r="A51" s="83">
         <v>44728</v>
       </c>
       <c r="B51" s="14">
@@ -2430,14 +2423,14 @@
         <v>1347</v>
       </c>
       <c r="G51" s="9"/>
-      <c r="H51" s="97"/>
-      <c r="I51" s="88"/>
+      <c r="H51" s="89"/>
+      <c r="I51" s="80"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="91">
+      <c r="A52" s="83">
         <v>44729</v>
       </c>
       <c r="B52" s="14">
@@ -2452,14 +2445,14 @@
         <v>1347</v>
       </c>
       <c r="G52" s="9"/>
-      <c r="H52" s="97"/>
-      <c r="I52" s="88"/>
+      <c r="H52" s="89"/>
+      <c r="I52" s="80"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="91">
+      <c r="A53" s="83">
         <v>44730</v>
       </c>
       <c r="B53" s="14">
@@ -2474,14 +2467,14 @@
         <v>1347</v>
       </c>
       <c r="G53" s="9"/>
-      <c r="H53" s="97"/>
-      <c r="I53" s="88"/>
+      <c r="H53" s="89"/>
+      <c r="I53" s="80"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c r="L53" s="9"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="91">
+      <c r="A54" s="83">
         <v>44731</v>
       </c>
       <c r="B54" s="14">
@@ -2496,14 +2489,14 @@
         <v>1347</v>
       </c>
       <c r="G54" s="9"/>
-      <c r="H54" s="97"/>
-      <c r="I54" s="88"/>
+      <c r="H54" s="89"/>
+      <c r="I54" s="80"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="91">
+      <c r="A55" s="83">
         <v>44732</v>
       </c>
       <c r="B55" s="14">
@@ -2518,14 +2511,14 @@
         <v>1347</v>
       </c>
       <c r="G55" s="9"/>
-      <c r="H55" s="97"/>
-      <c r="I55" s="88"/>
+      <c r="H55" s="89"/>
+      <c r="I55" s="80"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c r="L55" s="9"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="91">
+      <c r="A56" s="83">
         <v>44733</v>
       </c>
       <c r="B56" s="14">
@@ -2540,14 +2533,14 @@
         <v>1347</v>
       </c>
       <c r="G56" s="9"/>
-      <c r="H56" s="97"/>
-      <c r="I56" s="88"/>
+      <c r="H56" s="89"/>
+      <c r="I56" s="80"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c r="L56" s="9"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="91">
+      <c r="A57" s="83">
         <v>44734</v>
       </c>
       <c r="B57" s="14">
@@ -2564,14 +2557,14 @@
         <v>1377</v>
       </c>
       <c r="G57" s="9"/>
-      <c r="H57" s="97"/>
-      <c r="I57" s="88"/>
+      <c r="H57" s="89"/>
+      <c r="I57" s="80"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c r="L57" s="9"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="91">
+      <c r="A58" s="83">
         <v>44735</v>
       </c>
       <c r="B58" s="14">
@@ -2590,10 +2583,10 @@
       <c r="G58" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H58" s="98" t="s">
+      <c r="H58" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="I58" s="88">
+      <c r="I58" s="80">
         <v>44696</v>
       </c>
       <c r="J58" s="10">
@@ -2607,7 +2600,7 @@
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="91">
+      <c r="A59" s="83">
         <v>44736</v>
       </c>
       <c r="B59" s="14">
@@ -2622,14 +2615,14 @@
         <v>2185</v>
       </c>
       <c r="G59" s="9"/>
-      <c r="H59" s="97"/>
-      <c r="I59" s="88"/>
+      <c r="H59" s="89"/>
+      <c r="I59" s="80"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c r="L59" s="9"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="91">
+      <c r="A60" s="83">
         <v>44737</v>
       </c>
       <c r="B60" s="14">
@@ -2644,14 +2637,14 @@
         <v>2185</v>
       </c>
       <c r="G60" s="9"/>
-      <c r="H60" s="97"/>
-      <c r="I60" s="88"/>
+      <c r="H60" s="89"/>
+      <c r="I60" s="80"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="91">
+      <c r="A61" s="83">
         <v>44738</v>
       </c>
       <c r="B61" s="14">
@@ -2666,14 +2659,14 @@
         <v>2185</v>
       </c>
       <c r="G61" s="9"/>
-      <c r="H61" s="97"/>
-      <c r="I61" s="88"/>
+      <c r="H61" s="89"/>
+      <c r="I61" s="80"/>
       <c r="J61" s="9"/>
       <c r="K61" s="17"/>
       <c r="L61" s="17"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="92">
+      <c r="A62" s="84">
         <v>44739</v>
       </c>
       <c r="B62" s="14">
@@ -2688,14 +2681,14 @@
         <v>2185</v>
       </c>
       <c r="G62" s="9"/>
-      <c r="H62" s="97"/>
-      <c r="I62" s="88"/>
+      <c r="H62" s="89"/>
+      <c r="I62" s="80"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c r="L62" s="9"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="93">
+      <c r="A63" s="85">
         <v>44740</v>
       </c>
       <c r="B63" s="14">
@@ -2710,14 +2703,14 @@
         <v>2185</v>
       </c>
       <c r="G63" s="9"/>
-      <c r="H63" s="97"/>
-      <c r="I63" s="88"/>
+      <c r="H63" s="89"/>
+      <c r="I63" s="80"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c r="L63" s="9"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="91">
+      <c r="A64" s="83">
         <v>44741</v>
       </c>
       <c r="B64" s="14">
@@ -2732,14 +2725,14 @@
         <v>2185</v>
       </c>
       <c r="G64" s="9"/>
-      <c r="H64" s="97"/>
-      <c r="I64" s="88"/>
+      <c r="H64" s="89"/>
+      <c r="I64" s="80"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c r="L64" s="9"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="91">
+      <c r="A65" s="83">
         <v>44742</v>
       </c>
       <c r="B65" s="14">
@@ -2754,14 +2747,14 @@
         <v>2185</v>
       </c>
       <c r="G65" s="9"/>
-      <c r="H65" s="97"/>
-      <c r="I65" s="88"/>
+      <c r="H65" s="89"/>
+      <c r="I65" s="80"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c r="L65" s="9"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="91">
+      <c r="A66" s="83">
         <v>44743</v>
       </c>
       <c r="B66" s="14">
@@ -2776,14 +2769,14 @@
         <v>2185</v>
       </c>
       <c r="G66" s="9"/>
-      <c r="H66" s="97"/>
-      <c r="I66" s="88"/>
+      <c r="H66" s="89"/>
+      <c r="I66" s="80"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c r="L66" s="9"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="91">
+      <c r="A67" s="83">
         <v>44744</v>
       </c>
       <c r="B67" s="14">
@@ -2798,14 +2791,14 @@
         <v>2185</v>
       </c>
       <c r="G67" s="9"/>
-      <c r="H67" s="97"/>
-      <c r="I67" s="88"/>
+      <c r="H67" s="89"/>
+      <c r="I67" s="80"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c r="L67" s="9"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="91">
+      <c r="A68" s="83">
         <v>44745</v>
       </c>
       <c r="B68" s="14">
@@ -2820,14 +2813,14 @@
         <v>2185</v>
       </c>
       <c r="G68" s="9"/>
-      <c r="H68" s="97"/>
-      <c r="I68" s="88"/>
+      <c r="H68" s="89"/>
+      <c r="I68" s="80"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c r="L68" s="9"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="91">
+      <c r="A69" s="83">
         <v>44746</v>
       </c>
       <c r="B69" s="14">
@@ -2842,14 +2835,14 @@
         <v>2185</v>
       </c>
       <c r="G69" s="9"/>
-      <c r="H69" s="97"/>
-      <c r="I69" s="88"/>
+      <c r="H69" s="89"/>
+      <c r="I69" s="80"/>
       <c r="J69" s="9"/>
       <c r="K69" s="17"/>
       <c r="L69" s="17"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="91">
+      <c r="A70" s="83">
         <v>44747</v>
       </c>
       <c r="B70" s="14">
@@ -2864,14 +2857,14 @@
         <v>2185</v>
       </c>
       <c r="G70" s="9"/>
-      <c r="H70" s="97"/>
-      <c r="I70" s="88"/>
+      <c r="H70" s="89"/>
+      <c r="I70" s="80"/>
       <c r="J70" s="9"/>
       <c r="K70" s="17"/>
       <c r="L70" s="17"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="91">
+      <c r="A71" s="83">
         <v>44748</v>
       </c>
       <c r="B71" s="14">
@@ -2886,14 +2879,14 @@
         <v>2185</v>
       </c>
       <c r="G71" s="9"/>
-      <c r="H71" s="97"/>
-      <c r="I71" s="88"/>
+      <c r="H71" s="89"/>
+      <c r="I71" s="80"/>
       <c r="J71" s="9"/>
       <c r="K71" s="17"/>
       <c r="L71" s="17"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="91">
+      <c r="A72" s="83">
         <v>44749</v>
       </c>
       <c r="B72" s="14">
@@ -2908,14 +2901,14 @@
         <v>2185</v>
       </c>
       <c r="G72" s="9"/>
-      <c r="H72" s="97"/>
-      <c r="I72" s="88"/>
+      <c r="H72" s="89"/>
+      <c r="I72" s="80"/>
       <c r="J72" s="9"/>
       <c r="K72" s="17"/>
       <c r="L72" s="17"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="91">
+      <c r="A73" s="83">
         <v>44750</v>
       </c>
       <c r="B73" s="14">
@@ -2930,14 +2923,14 @@
         <v>2185</v>
       </c>
       <c r="G73" s="9"/>
-      <c r="H73" s="97"/>
-      <c r="I73" s="88"/>
+      <c r="H73" s="89"/>
+      <c r="I73" s="80"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c r="L73" s="9"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="91">
+      <c r="A74" s="83">
         <v>44751</v>
       </c>
       <c r="B74" s="14">
@@ -2952,14 +2945,14 @@
         <v>2185</v>
       </c>
       <c r="G74" s="9"/>
-      <c r="H74" s="97"/>
-      <c r="I74" s="88"/>
+      <c r="H74" s="89"/>
+      <c r="I74" s="80"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c r="L74" s="9"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="91">
+      <c r="A75" s="83">
         <v>44752</v>
       </c>
       <c r="B75" s="14">
@@ -2974,14 +2967,14 @@
         <v>2185</v>
       </c>
       <c r="G75" s="9"/>
-      <c r="H75" s="97"/>
-      <c r="I75" s="88"/>
+      <c r="H75" s="89"/>
+      <c r="I75" s="80"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c r="L75" s="9"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="91">
+      <c r="A76" s="83">
         <v>44753</v>
       </c>
       <c r="B76" s="14">
@@ -2996,14 +2989,14 @@
         <v>2185</v>
       </c>
       <c r="G76" s="9"/>
-      <c r="H76" s="97"/>
-      <c r="I76" s="88"/>
+      <c r="H76" s="89"/>
+      <c r="I76" s="80"/>
       <c r="J76" s="9"/>
       <c r="K76" s="17"/>
       <c r="L76" s="17"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="91">
+      <c r="A77" s="83">
         <v>44754</v>
       </c>
       <c r="B77" s="14">
@@ -3018,14 +3011,14 @@
         <v>2185</v>
       </c>
       <c r="G77" s="9"/>
-      <c r="H77" s="97"/>
-      <c r="I77" s="88"/>
+      <c r="H77" s="89"/>
+      <c r="I77" s="80"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c r="L77" s="9"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="91">
+      <c r="A78" s="83">
         <v>44755</v>
       </c>
       <c r="B78" s="14">
@@ -3040,14 +3033,14 @@
         <v>2185</v>
       </c>
       <c r="G78" s="9"/>
-      <c r="H78" s="97"/>
-      <c r="I78" s="88"/>
+      <c r="H78" s="89"/>
+      <c r="I78" s="80"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c r="L78" s="9"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="91">
+      <c r="A79" s="83">
         <v>44756</v>
       </c>
       <c r="B79" s="14">
@@ -3062,14 +3055,14 @@
         <v>2185</v>
       </c>
       <c r="G79" s="9"/>
-      <c r="H79" s="97"/>
-      <c r="I79" s="88"/>
+      <c r="H79" s="89"/>
+      <c r="I79" s="80"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c r="L79" s="9"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="91">
+      <c r="A80" s="83">
         <v>44757</v>
       </c>
       <c r="B80" s="14">
@@ -3084,14 +3077,14 @@
         <v>2185</v>
       </c>
       <c r="G80" s="9"/>
-      <c r="H80" s="97"/>
-      <c r="I80" s="88"/>
+      <c r="H80" s="89"/>
+      <c r="I80" s="80"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c r="L80" s="9"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="91">
+      <c r="A81" s="83">
         <v>44758</v>
       </c>
       <c r="B81" s="14">
@@ -3110,10 +3103,10 @@
       <c r="G81" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H81" s="99" t="s">
+      <c r="H81" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="I81" s="88">
+      <c r="I81" s="80">
         <v>44764</v>
       </c>
       <c r="J81" s="9"/>
@@ -3121,7 +3114,7 @@
       <c r="L81" s="9"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="91">
+      <c r="A82" s="83">
         <v>44759</v>
       </c>
       <c r="B82" s="14">
@@ -3138,12 +3131,12 @@
         <v>3800</v>
       </c>
       <c r="G82" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H82" s="89" t="s">
         <v>90</v>
       </c>
-      <c r="H82" s="97" t="s">
-        <v>91</v>
-      </c>
-      <c r="I82" s="88">
+      <c r="I82" s="80">
         <v>44764</v>
       </c>
       <c r="J82" s="9"/>
@@ -3151,7 +3144,7 @@
       <c r="L82" s="9"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="91">
+      <c r="A83" s="83">
         <v>44760</v>
       </c>
       <c r="B83" s="14">
@@ -3166,14 +3159,14 @@
         <v>3800</v>
       </c>
       <c r="G83" s="9"/>
-      <c r="H83" s="97"/>
-      <c r="I83" s="88"/>
+      <c r="H83" s="89"/>
+      <c r="I83" s="80"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c r="L83" s="9"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="91">
+      <c r="A84" s="83">
         <v>44761</v>
       </c>
       <c r="B84" s="14">
@@ -3188,14 +3181,14 @@
         <v>3800</v>
       </c>
       <c r="G84" s="9"/>
-      <c r="H84" s="97"/>
-      <c r="I84" s="88"/>
+      <c r="H84" s="89"/>
+      <c r="I84" s="80"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c r="L84" s="9"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="91">
+      <c r="A85" s="83">
         <v>44762</v>
       </c>
       <c r="B85" s="14">
@@ -3210,14 +3203,14 @@
         <v>3800</v>
       </c>
       <c r="G85" s="9"/>
-      <c r="H85" s="97"/>
-      <c r="I85" s="88"/>
+      <c r="H85" s="89"/>
+      <c r="I85" s="80"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c r="L85" s="9"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="91">
+      <c r="A86" s="83">
         <v>44763</v>
       </c>
       <c r="B86" s="14">
@@ -3232,14 +3225,14 @@
         <v>3800</v>
       </c>
       <c r="G86" s="9"/>
-      <c r="H86" s="97"/>
-      <c r="I86" s="88"/>
+      <c r="H86" s="89"/>
+      <c r="I86" s="80"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c r="L86" s="9"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="91">
+      <c r="A87" s="83">
         <v>44764</v>
       </c>
       <c r="B87" s="14">
@@ -3254,14 +3247,14 @@
         <v>3800</v>
       </c>
       <c r="G87" s="9"/>
-      <c r="H87" s="97"/>
-      <c r="I87" s="88"/>
+      <c r="H87" s="89"/>
+      <c r="I87" s="80"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c r="L87" s="9"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="91">
+      <c r="A88" s="83">
         <v>44765</v>
       </c>
       <c r="B88" s="14">
@@ -3276,14 +3269,14 @@
         <v>3800</v>
       </c>
       <c r="G88" s="9"/>
-      <c r="H88" s="97"/>
-      <c r="I88" s="88"/>
+      <c r="H88" s="89"/>
+      <c r="I88" s="80"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c r="L88" s="9"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="91">
+      <c r="A89" s="83">
         <v>44766</v>
       </c>
       <c r="B89" s="14">
@@ -3298,14 +3291,14 @@
         <v>3800</v>
       </c>
       <c r="G89" s="9"/>
-      <c r="H89" s="97"/>
-      <c r="I89" s="88"/>
+      <c r="H89" s="89"/>
+      <c r="I89" s="80"/>
       <c r="J89" s="9"/>
       <c r="K89" s="53"/>
       <c r="L89" s="53"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="91">
+      <c r="A90" s="83">
         <v>44767</v>
       </c>
       <c r="B90" s="14">
@@ -3320,14 +3313,14 @@
         <v>3800</v>
       </c>
       <c r="G90" s="9"/>
-      <c r="H90" s="97"/>
-      <c r="I90" s="88"/>
+      <c r="H90" s="89"/>
+      <c r="I90" s="80"/>
       <c r="J90" s="9"/>
       <c r="K90" s="53"/>
       <c r="L90" s="53"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="91">
+      <c r="A91" s="83">
         <v>44768</v>
       </c>
       <c r="B91" s="14">
@@ -3344,8 +3337,8 @@
         <v>4606</v>
       </c>
       <c r="G91" s="9"/>
-      <c r="H91" s="97"/>
-      <c r="I91" s="88"/>
+      <c r="H91" s="89"/>
+      <c r="I91" s="80"/>
       <c r="J91" s="9"/>
       <c r="K91" s="53" t="s">
         <v>88</v>
@@ -3355,7 +3348,7 @@
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="91">
+      <c r="A92" s="83">
         <v>44769</v>
       </c>
       <c r="B92" s="14">
@@ -3372,8 +3365,8 @@
         <v>5412</v>
       </c>
       <c r="G92" s="9"/>
-      <c r="H92" s="97"/>
-      <c r="I92" s="88"/>
+      <c r="H92" s="89"/>
+      <c r="I92" s="80"/>
       <c r="J92" s="9"/>
       <c r="K92" s="53" t="s">
         <v>88</v>
@@ -3383,7 +3376,7 @@
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="91">
+      <c r="A93" s="83">
         <v>44770</v>
       </c>
       <c r="B93" s="14">
@@ -3400,8 +3393,8 @@
         <v>6218</v>
       </c>
       <c r="G93" s="9"/>
-      <c r="H93" s="97"/>
-      <c r="I93" s="88"/>
+      <c r="H93" s="89"/>
+      <c r="I93" s="80"/>
       <c r="J93" s="9"/>
       <c r="K93" s="53" t="s">
         <v>88</v>
@@ -3411,7 +3404,7 @@
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="91">
+      <c r="A94" s="83">
         <v>44771</v>
       </c>
       <c r="B94" s="14">
@@ -3426,14 +3419,14 @@
         <v>6218</v>
       </c>
       <c r="G94" s="9"/>
-      <c r="H94" s="97"/>
-      <c r="I94" s="88"/>
+      <c r="H94" s="89"/>
+      <c r="I94" s="80"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c r="L94" s="9"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="91">
+      <c r="A95" s="83">
         <v>44772</v>
       </c>
       <c r="B95" s="14">
@@ -3448,14 +3441,14 @@
         <v>6218</v>
       </c>
       <c r="G95" s="9"/>
-      <c r="H95" s="97"/>
-      <c r="I95" s="88"/>
+      <c r="H95" s="89"/>
+      <c r="I95" s="80"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c r="L95" s="9"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="91">
+      <c r="A96" s="83">
         <v>44773</v>
       </c>
       <c r="B96" s="14">
@@ -3470,14 +3463,14 @@
         <v>6218</v>
       </c>
       <c r="G96" s="9"/>
-      <c r="H96" s="97"/>
-      <c r="I96" s="88"/>
+      <c r="H96" s="89"/>
+      <c r="I96" s="80"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c r="L96" s="9"/>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="91">
+      <c r="A97" s="83">
         <v>44774</v>
       </c>
       <c r="B97" s="14">
@@ -3492,14 +3485,14 @@
         <v>6218</v>
       </c>
       <c r="G97" s="9"/>
-      <c r="H97" s="97"/>
-      <c r="I97" s="88"/>
+      <c r="H97" s="89"/>
+      <c r="I97" s="80"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c r="L97" s="9"/>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="91">
+      <c r="A98" s="83">
         <v>44775</v>
       </c>
       <c r="B98" s="14">
@@ -3514,14 +3507,14 @@
         <v>6218</v>
       </c>
       <c r="G98" s="9"/>
-      <c r="H98" s="97"/>
-      <c r="I98" s="88"/>
+      <c r="H98" s="89"/>
+      <c r="I98" s="80"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c r="L98" s="9"/>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" s="91">
+      <c r="A99" s="83">
         <v>44776</v>
       </c>
       <c r="B99" s="14">
@@ -3536,14 +3529,14 @@
         <v>6218</v>
       </c>
       <c r="G99" s="9"/>
-      <c r="H99" s="97"/>
-      <c r="I99" s="88"/>
+      <c r="H99" s="89"/>
+      <c r="I99" s="80"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c r="L99" s="9"/>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="91">
+      <c r="A100" s="83">
         <v>44777</v>
       </c>
       <c r="B100" s="14">
@@ -3558,14 +3551,14 @@
         <v>6218</v>
       </c>
       <c r="G100" s="9"/>
-      <c r="H100" s="97"/>
-      <c r="I100" s="88"/>
+      <c r="H100" s="89"/>
+      <c r="I100" s="80"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c r="L100" s="9"/>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="91">
+      <c r="A101" s="83">
         <v>44778</v>
       </c>
       <c r="B101" s="14">
@@ -3580,14 +3573,14 @@
         <v>6218</v>
       </c>
       <c r="G101" s="9"/>
-      <c r="H101" s="97"/>
-      <c r="I101" s="88"/>
+      <c r="H101" s="89"/>
+      <c r="I101" s="80"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c r="L101" s="9"/>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" s="91">
+      <c r="A102" s="83">
         <v>44779</v>
       </c>
       <c r="B102" s="14">
@@ -3602,14 +3595,14 @@
         <v>6218</v>
       </c>
       <c r="G102" s="9"/>
-      <c r="H102" s="97"/>
-      <c r="I102" s="88"/>
+      <c r="H102" s="89"/>
+      <c r="I102" s="80"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c r="L102" s="9"/>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" s="91">
+      <c r="A103" s="83">
         <v>44780</v>
       </c>
       <c r="B103" s="14">
@@ -3624,14 +3617,14 @@
         <v>6218</v>
       </c>
       <c r="G103" s="9"/>
-      <c r="H103" s="97"/>
-      <c r="I103" s="88"/>
+      <c r="H103" s="89"/>
+      <c r="I103" s="80"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c r="L103" s="9"/>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A104" s="91">
+      <c r="A104" s="83">
         <v>44781</v>
       </c>
       <c r="B104" s="14">
@@ -3646,14 +3639,14 @@
         <v>6218</v>
       </c>
       <c r="G104" s="9"/>
-      <c r="H104" s="97"/>
-      <c r="I104" s="88"/>
+      <c r="H104" s="89"/>
+      <c r="I104" s="80"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c r="L104" s="9"/>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A105" s="91">
+      <c r="A105" s="83">
         <v>44782</v>
       </c>
       <c r="B105" s="14">
@@ -3668,14 +3661,14 @@
         <v>6218</v>
       </c>
       <c r="G105" s="9"/>
-      <c r="H105" s="97"/>
-      <c r="I105" s="88"/>
+      <c r="H105" s="89"/>
+      <c r="I105" s="80"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c r="L105" s="9"/>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A106" s="91">
+      <c r="A106" s="83">
         <v>44783</v>
       </c>
       <c r="B106" s="14">
@@ -3690,14 +3683,14 @@
         <v>6218</v>
       </c>
       <c r="G106" s="9"/>
-      <c r="H106" s="97"/>
-      <c r="I106" s="88"/>
+      <c r="H106" s="89"/>
+      <c r="I106" s="80"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c r="L106" s="9"/>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" s="91">
+      <c r="A107" s="83">
         <v>44784</v>
       </c>
       <c r="B107" s="14">
@@ -3712,14 +3705,14 @@
         <v>6218</v>
       </c>
       <c r="G107" s="9"/>
-      <c r="H107" s="97"/>
-      <c r="I107" s="88"/>
+      <c r="H107" s="89"/>
+      <c r="I107" s="80"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c r="L107" s="9"/>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" s="91">
+      <c r="A108" s="83">
         <v>44785</v>
       </c>
       <c r="B108" s="14">
@@ -3734,14 +3727,14 @@
         <v>6218</v>
       </c>
       <c r="G108" s="9"/>
-      <c r="H108" s="97"/>
-      <c r="I108" s="88"/>
+      <c r="H108" s="89"/>
+      <c r="I108" s="80"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c r="L108" s="9"/>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" s="91">
+      <c r="A109" s="83">
         <v>44786</v>
       </c>
       <c r="B109" s="14">
@@ -3756,14 +3749,14 @@
         <v>6218</v>
       </c>
       <c r="G109" s="9"/>
-      <c r="H109" s="97"/>
-      <c r="I109" s="88"/>
+      <c r="H109" s="89"/>
+      <c r="I109" s="80"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c r="L109" s="9"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" s="91">
+      <c r="A110" s="83">
         <v>44787</v>
       </c>
       <c r="B110" s="14">
@@ -3778,14 +3771,14 @@
         <v>6218</v>
       </c>
       <c r="G110" s="9"/>
-      <c r="H110" s="97"/>
-      <c r="I110" s="88"/>
+      <c r="H110" s="89"/>
+      <c r="I110" s="80"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c r="L110" s="9"/>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" s="91">
+      <c r="A111" s="83">
         <v>44788</v>
       </c>
       <c r="B111" s="14">
@@ -3800,14 +3793,14 @@
         <v>6218</v>
       </c>
       <c r="G111" s="9"/>
-      <c r="H111" s="97"/>
-      <c r="I111" s="88"/>
+      <c r="H111" s="89"/>
+      <c r="I111" s="80"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c r="L111" s="9"/>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" s="91">
+      <c r="A112" s="83">
         <v>44789</v>
       </c>
       <c r="B112" s="14">
@@ -3822,14 +3815,14 @@
         <v>6218</v>
       </c>
       <c r="G112" s="9"/>
-      <c r="H112" s="97"/>
-      <c r="I112" s="88"/>
+      <c r="H112" s="89"/>
+      <c r="I112" s="80"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c r="L112" s="9"/>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" s="91">
+      <c r="A113" s="83">
         <v>44790</v>
       </c>
       <c r="B113" s="14">
@@ -3844,14 +3837,14 @@
         <v>6218</v>
       </c>
       <c r="G113" s="9"/>
-      <c r="H113" s="97"/>
-      <c r="I113" s="88"/>
+      <c r="H113" s="89"/>
+      <c r="I113" s="80"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c r="L113" s="9"/>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="91">
+      <c r="A114" s="83">
         <v>44791</v>
       </c>
       <c r="B114" s="14">
@@ -3866,14 +3859,14 @@
         <v>6218</v>
       </c>
       <c r="G114" s="9"/>
-      <c r="H114" s="97"/>
-      <c r="I114" s="88"/>
+      <c r="H114" s="89"/>
+      <c r="I114" s="80"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c r="L114" s="9"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="91">
+      <c r="A115" s="83">
         <v>44792</v>
       </c>
       <c r="B115" s="14">
@@ -3888,14 +3881,14 @@
         <v>6218</v>
       </c>
       <c r="G115" s="9"/>
-      <c r="H115" s="97"/>
-      <c r="I115" s="88"/>
+      <c r="H115" s="89"/>
+      <c r="I115" s="80"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c r="L115" s="9"/>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="91">
+      <c r="A116" s="83">
         <v>44793</v>
       </c>
       <c r="B116" s="14">
@@ -3910,14 +3903,14 @@
         <v>6218</v>
       </c>
       <c r="G116" s="9"/>
-      <c r="H116" s="97"/>
-      <c r="I116" s="88"/>
+      <c r="H116" s="89"/>
+      <c r="I116" s="80"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c r="L116" s="9"/>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" s="91">
+      <c r="A117" s="83">
         <v>44794</v>
       </c>
       <c r="B117" s="14">
@@ -3932,14 +3925,14 @@
         <v>6218</v>
       </c>
       <c r="G117" s="9"/>
-      <c r="H117" s="97"/>
-      <c r="I117" s="88"/>
+      <c r="H117" s="89"/>
+      <c r="I117" s="80"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c r="L117" s="9"/>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" s="91">
+      <c r="A118" s="83">
         <v>44795</v>
       </c>
       <c r="B118" s="14">
@@ -3954,14 +3947,14 @@
         <v>6218</v>
       </c>
       <c r="G118" s="9"/>
-      <c r="H118" s="97"/>
-      <c r="I118" s="88"/>
+      <c r="H118" s="89"/>
+      <c r="I118" s="80"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c r="L118" s="9"/>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A119" s="91">
+      <c r="A119" s="83">
         <v>44796</v>
       </c>
       <c r="B119" s="14">
@@ -3976,14 +3969,14 @@
         <v>6218</v>
       </c>
       <c r="G119" s="9"/>
-      <c r="H119" s="97"/>
-      <c r="I119" s="88"/>
+      <c r="H119" s="89"/>
+      <c r="I119" s="80"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c r="L119" s="9"/>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A120" s="91">
+      <c r="A120" s="83">
         <v>44797</v>
       </c>
       <c r="B120" s="14">
@@ -3998,14 +3991,14 @@
         <v>6218</v>
       </c>
       <c r="G120" s="9"/>
-      <c r="H120" s="97"/>
-      <c r="I120" s="88"/>
+      <c r="H120" s="89"/>
+      <c r="I120" s="80"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c r="L120" s="9"/>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A121" s="91">
+      <c r="A121" s="83">
         <v>44798</v>
       </c>
       <c r="B121" s="14">
@@ -4020,14 +4013,14 @@
         <v>6218</v>
       </c>
       <c r="G121" s="9"/>
-      <c r="H121" s="97"/>
-      <c r="I121" s="88"/>
+      <c r="H121" s="89"/>
+      <c r="I121" s="80"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c r="L121" s="9"/>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A122" s="91">
+      <c r="A122" s="83">
         <v>44799</v>
       </c>
       <c r="B122" s="14">
@@ -4042,14 +4035,14 @@
         <v>6218</v>
       </c>
       <c r="G122" s="9"/>
-      <c r="H122" s="97"/>
-      <c r="I122" s="88"/>
+      <c r="H122" s="89"/>
+      <c r="I122" s="80"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c r="L122" s="9"/>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A123" s="91">
+      <c r="A123" s="83">
         <v>44800</v>
       </c>
       <c r="B123" s="14">
@@ -4064,14 +4057,14 @@
         <v>6218</v>
       </c>
       <c r="G123" s="9"/>
-      <c r="H123" s="97"/>
-      <c r="I123" s="88"/>
+      <c r="H123" s="89"/>
+      <c r="I123" s="80"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c r="L123" s="9"/>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" s="91">
+      <c r="A124" s="83">
         <v>44801</v>
       </c>
       <c r="B124" s="14">
@@ -4086,14 +4079,14 @@
         <v>6218</v>
       </c>
       <c r="G124" s="9"/>
-      <c r="H124" s="97"/>
-      <c r="I124" s="88"/>
+      <c r="H124" s="89"/>
+      <c r="I124" s="80"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c r="L124" s="9"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="91">
+      <c r="A125" s="83">
         <v>44802</v>
       </c>
       <c r="B125" s="14">
@@ -4108,14 +4101,14 @@
         <v>6218</v>
       </c>
       <c r="G125" s="9"/>
-      <c r="H125" s="97"/>
-      <c r="I125" s="88"/>
+      <c r="H125" s="89"/>
+      <c r="I125" s="80"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c r="L125" s="9"/>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="91">
+      <c r="A126" s="83">
         <v>44803</v>
       </c>
       <c r="B126" s="14">
@@ -4130,14 +4123,14 @@
         <v>6218</v>
       </c>
       <c r="G126" s="9"/>
-      <c r="H126" s="97"/>
-      <c r="I126" s="88"/>
+      <c r="H126" s="89"/>
+      <c r="I126" s="80"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c r="L126" s="9"/>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" s="91">
+      <c r="A127" s="83">
         <v>44804</v>
       </c>
       <c r="B127" s="14">
@@ -4152,14 +4145,14 @@
         <v>6218</v>
       </c>
       <c r="G127" s="9"/>
-      <c r="H127" s="97"/>
-      <c r="I127" s="88"/>
+      <c r="H127" s="89"/>
+      <c r="I127" s="80"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c r="L127" s="9"/>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A128" s="91">
+      <c r="A128" s="83">
         <v>44805</v>
       </c>
       <c r="B128" s="14">
@@ -4174,14 +4167,14 @@
         <v>6218</v>
       </c>
       <c r="G128" s="9"/>
-      <c r="H128" s="97"/>
-      <c r="I128" s="88"/>
+      <c r="H128" s="89"/>
+      <c r="I128" s="80"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c r="L128" s="9"/>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A129" s="91">
+      <c r="A129" s="83">
         <v>44806</v>
       </c>
       <c r="B129" s="14">
@@ -4196,14 +4189,14 @@
         <v>6218</v>
       </c>
       <c r="G129" s="9"/>
-      <c r="H129" s="97"/>
-      <c r="I129" s="88"/>
+      <c r="H129" s="89"/>
+      <c r="I129" s="80"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c r="L129" s="9"/>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A130" s="91">
+      <c r="A130" s="83">
         <v>44807</v>
       </c>
       <c r="B130" s="14">
@@ -4218,14 +4211,14 @@
         <v>6218</v>
       </c>
       <c r="G130" s="9"/>
-      <c r="H130" s="97"/>
-      <c r="I130" s="88"/>
+      <c r="H130" s="89"/>
+      <c r="I130" s="80"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c r="L130" s="9"/>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A131" s="91">
+      <c r="A131" s="83">
         <v>44808</v>
       </c>
       <c r="B131" s="14">
@@ -4240,14 +4233,14 @@
         <v>6218</v>
       </c>
       <c r="G131" s="9"/>
-      <c r="H131" s="97"/>
-      <c r="I131" s="88"/>
+      <c r="H131" s="89"/>
+      <c r="I131" s="80"/>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
       <c r="L131" s="9"/>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A132" s="91">
+      <c r="A132" s="83">
         <v>44809</v>
       </c>
       <c r="B132" s="14">
@@ -4262,14 +4255,14 @@
         <v>6218</v>
       </c>
       <c r="G132" s="9"/>
-      <c r="H132" s="97"/>
-      <c r="I132" s="88"/>
+      <c r="H132" s="89"/>
+      <c r="I132" s="80"/>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
       <c r="L132" s="9"/>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A133" s="91">
+      <c r="A133" s="83">
         <v>44810</v>
       </c>
       <c r="B133" s="14">
@@ -4284,14 +4277,14 @@
         <v>6218</v>
       </c>
       <c r="G133" s="9"/>
-      <c r="H133" s="97"/>
-      <c r="I133" s="88"/>
+      <c r="H133" s="89"/>
+      <c r="I133" s="80"/>
       <c r="J133" s="9"/>
       <c r="K133" s="9"/>
       <c r="L133" s="9"/>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A134" s="91">
+      <c r="A134" s="83">
         <v>44811</v>
       </c>
       <c r="B134" s="14">
@@ -4306,14 +4299,14 @@
         <v>6218</v>
       </c>
       <c r="G134" s="9"/>
-      <c r="H134" s="97"/>
-      <c r="I134" s="88"/>
+      <c r="H134" s="89"/>
+      <c r="I134" s="80"/>
       <c r="J134" s="9"/>
       <c r="K134" s="9"/>
       <c r="L134" s="9"/>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A135" s="91">
+      <c r="A135" s="83">
         <v>44812</v>
       </c>
       <c r="B135" s="14">
@@ -4328,14 +4321,14 @@
         <v>6218</v>
       </c>
       <c r="G135" s="9"/>
-      <c r="H135" s="97"/>
-      <c r="I135" s="88"/>
+      <c r="H135" s="89"/>
+      <c r="I135" s="80"/>
       <c r="J135" s="9"/>
       <c r="K135" s="9"/>
       <c r="L135" s="9"/>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I136" s="89"/>
+      <c r="I136" s="81"/>
     </row>
   </sheetData>
   <autoFilter ref="A6:K6" xr:uid="{F592DD72-3677-42F3-8BC9-E657D5C3C8F9}"/>
@@ -4380,18 +4373,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
       <c r="K1" s="1"/>
       <c r="L1" s="12"/>
     </row>
@@ -4449,13 +4442,13 @@
       <c r="E4" s="45"/>
       <c r="F4" s="45"/>
       <c r="G4" s="46"/>
-      <c r="H4" s="79" t="s">
+      <c r="H4" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="84"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="97"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="47"/>
@@ -4473,11 +4466,11 @@
       </c>
       <c r="F5" s="51"/>
       <c r="G5" s="52"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="85"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="98"/>
     </row>
     <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
@@ -5175,7 +5168,7 @@
       <c r="L34" s="9"/>
     </row>
     <row r="35" spans="1:12" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="90">
+      <c r="A35" s="82">
         <v>44712</v>
       </c>
       <c r="B35" s="73">
@@ -5196,7 +5189,7 @@
       <c r="L35" s="9"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="91">
+      <c r="A36" s="83">
         <v>44713</v>
       </c>
       <c r="B36" s="14">
@@ -5218,7 +5211,7 @@
       <c r="L36" s="16"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="91">
+      <c r="A37" s="83">
         <v>44714</v>
       </c>
       <c r="B37" s="14">
@@ -5240,7 +5233,7 @@
       <c r="L37" s="9"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="91">
+      <c r="A38" s="83">
         <v>44715</v>
       </c>
       <c r="B38" s="14">
@@ -5262,7 +5255,7 @@
       <c r="L38" s="9"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="91">
+      <c r="A39" s="83">
         <v>44716</v>
       </c>
       <c r="B39" s="14">
@@ -5284,7 +5277,7 @@
       <c r="L39" s="9"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="91">
+      <c r="A40" s="83">
         <v>44717</v>
       </c>
       <c r="B40" s="14">
@@ -5306,7 +5299,7 @@
       <c r="L40" s="9"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="91">
+      <c r="A41" s="83">
         <v>44718</v>
       </c>
       <c r="B41" s="14">
@@ -5328,7 +5321,7 @@
       <c r="L41" s="9"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="91">
+      <c r="A42" s="83">
         <v>44719</v>
       </c>
       <c r="B42" s="14">
@@ -5350,7 +5343,7 @@
       <c r="L42" s="9"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="91">
+      <c r="A43" s="83">
         <v>44720</v>
       </c>
       <c r="B43" s="14">
@@ -5372,7 +5365,7 @@
       <c r="L43" s="9"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="91">
+      <c r="A44" s="83">
         <v>44721</v>
       </c>
       <c r="B44" s="14">
@@ -5394,7 +5387,7 @@
       <c r="L44" s="17"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="91">
+      <c r="A45" s="83">
         <v>44722</v>
       </c>
       <c r="B45" s="14">
@@ -5416,7 +5409,7 @@
       <c r="L45" s="9"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="91">
+      <c r="A46" s="83">
         <v>44723</v>
       </c>
       <c r="B46" s="14">
@@ -5438,7 +5431,7 @@
       <c r="L46" s="9"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="91">
+      <c r="A47" s="83">
         <v>44724</v>
       </c>
       <c r="B47" s="14">
@@ -5460,7 +5453,7 @@
       <c r="L47" s="9"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="91">
+      <c r="A48" s="83">
         <v>44725</v>
       </c>
       <c r="B48" s="14">
@@ -5482,7 +5475,7 @@
       <c r="L48" s="9"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="91">
+      <c r="A49" s="83">
         <v>44726</v>
       </c>
       <c r="B49" s="14">
@@ -5506,11 +5499,11 @@
       <c r="H49" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I49" s="88">
+      <c r="I49" s="80">
         <v>44719</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K49" s="3"/>
       <c r="L49" s="9" t="s">
@@ -5518,7 +5511,7 @@
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="91">
+      <c r="A50" s="83">
         <v>44727</v>
       </c>
       <c r="B50" s="14">
@@ -5540,11 +5533,11 @@
       <c r="H50" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I50" s="88">
+      <c r="I50" s="80">
         <v>44719</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K50" s="3"/>
       <c r="L50" s="9" t="s">
@@ -5552,7 +5545,7 @@
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="91">
+      <c r="A51" s="83">
         <v>44728</v>
       </c>
       <c r="B51" s="14">
@@ -5574,11 +5567,11 @@
       <c r="H51" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I51" s="88">
+      <c r="I51" s="80">
         <v>44719</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K51" s="3"/>
       <c r="L51" s="9" t="s">
@@ -5586,7 +5579,7 @@
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="91">
+      <c r="A52" s="83">
         <v>44729</v>
       </c>
       <c r="B52" s="14">
@@ -5608,7 +5601,7 @@
       <c r="L52" s="53"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="91">
+      <c r="A53" s="83">
         <v>44730</v>
       </c>
       <c r="B53" s="14">
@@ -5630,7 +5623,7 @@
       <c r="L53" s="53"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="91">
+      <c r="A54" s="83">
         <v>44731</v>
       </c>
       <c r="B54" s="14">
@@ -5652,7 +5645,7 @@
       <c r="L54" s="53"/>
     </row>
     <row r="55" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="91">
+      <c r="A55" s="83">
         <v>44732</v>
       </c>
       <c r="B55" s="14">
@@ -5674,7 +5667,7 @@
       <c r="L55" s="9"/>
     </row>
     <row r="56" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="91">
+      <c r="A56" s="83">
         <v>44733</v>
       </c>
       <c r="B56" s="14">
@@ -5696,7 +5689,7 @@
       <c r="L56" s="9"/>
     </row>
     <row r="57" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="91">
+      <c r="A57" s="83">
         <v>44734</v>
       </c>
       <c r="B57" s="14">
@@ -5718,7 +5711,7 @@
       <c r="L57" s="9"/>
     </row>
     <row r="58" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="91">
+      <c r="A58" s="83">
         <v>44735</v>
       </c>
       <c r="B58" s="14">
@@ -5740,7 +5733,7 @@
       <c r="L58" s="10"/>
     </row>
     <row r="59" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="91">
+      <c r="A59" s="83">
         <v>44736</v>
       </c>
       <c r="B59" s="14">
@@ -5762,7 +5755,7 @@
       <c r="L59" s="9"/>
     </row>
     <row r="60" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="91">
+      <c r="A60" s="83">
         <v>44737</v>
       </c>
       <c r="B60" s="14">
@@ -5784,7 +5777,7 @@
       <c r="L60" s="9"/>
     </row>
     <row r="61" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="91">
+      <c r="A61" s="83">
         <v>44738</v>
       </c>
       <c r="B61" s="14">
@@ -5806,7 +5799,7 @@
       <c r="L61" s="17"/>
     </row>
     <row r="62" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="91">
+      <c r="A62" s="83">
         <v>44739</v>
       </c>
       <c r="B62" s="14">
@@ -5828,7 +5821,7 @@
       <c r="L62" s="9"/>
     </row>
     <row r="63" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="91">
+      <c r="A63" s="83">
         <v>44740</v>
       </c>
       <c r="B63" s="14">
@@ -5850,7 +5843,7 @@
       <c r="L63" s="9"/>
     </row>
     <row r="64" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="91">
+      <c r="A64" s="83">
         <v>44741</v>
       </c>
       <c r="B64" s="14">
@@ -5872,7 +5865,7 @@
       <c r="L64" s="9"/>
     </row>
     <row r="65" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="91">
+      <c r="A65" s="83">
         <v>44742</v>
       </c>
       <c r="B65" s="14">
@@ -5894,7 +5887,7 @@
       <c r="L65" s="9"/>
     </row>
     <row r="66" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="91">
+      <c r="A66" s="83">
         <v>44743</v>
       </c>
       <c r="B66" s="14">
@@ -5916,7 +5909,7 @@
       <c r="L66" s="9"/>
     </row>
     <row r="67" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="91">
+      <c r="A67" s="83">
         <v>44744</v>
       </c>
       <c r="B67" s="14">
@@ -5938,7 +5931,7 @@
       <c r="L67" s="9"/>
     </row>
     <row r="68" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="91">
+      <c r="A68" s="83">
         <v>44745</v>
       </c>
       <c r="B68" s="14">
@@ -5960,7 +5953,7 @@
       <c r="L68" s="9"/>
     </row>
     <row r="69" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="91">
+      <c r="A69" s="83">
         <v>44746</v>
       </c>
       <c r="B69" s="14">
@@ -5982,7 +5975,7 @@
       <c r="L69" s="17"/>
     </row>
     <row r="70" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="91">
+      <c r="A70" s="83">
         <v>44747</v>
       </c>
       <c r="B70" s="14">
@@ -6004,7 +5997,7 @@
       <c r="L70" s="17"/>
     </row>
     <row r="71" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="91">
+      <c r="A71" s="83">
         <v>44748</v>
       </c>
       <c r="B71" s="14">
@@ -6026,7 +6019,7 @@
       <c r="L71" s="17"/>
     </row>
     <row r="72" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="91">
+      <c r="A72" s="83">
         <v>44749</v>
       </c>
       <c r="B72" s="14">
@@ -6048,7 +6041,7 @@
       <c r="L72" s="17"/>
     </row>
     <row r="73" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="91">
+      <c r="A73" s="83">
         <v>44750</v>
       </c>
       <c r="B73" s="14">
@@ -6070,7 +6063,7 @@
       <c r="L73" s="9"/>
     </row>
     <row r="74" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="91">
+      <c r="A74" s="83">
         <v>44751</v>
       </c>
       <c r="B74" s="14">
@@ -6092,7 +6085,7 @@
       <c r="L74" s="9"/>
     </row>
     <row r="75" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="91">
+      <c r="A75" s="83">
         <v>44752</v>
       </c>
       <c r="B75" s="14">
@@ -6114,7 +6107,7 @@
       <c r="L75" s="9"/>
     </row>
     <row r="76" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="91">
+      <c r="A76" s="83">
         <v>44753</v>
       </c>
       <c r="B76" s="14">
@@ -6136,7 +6129,7 @@
       <c r="L76" s="17"/>
     </row>
     <row r="77" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="91">
+      <c r="A77" s="83">
         <v>44754</v>
       </c>
       <c r="B77" s="14">
@@ -6158,7 +6151,7 @@
       <c r="L77" s="9"/>
     </row>
     <row r="78" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="91">
+      <c r="A78" s="83">
         <v>44755</v>
       </c>
       <c r="B78" s="14">
@@ -6180,7 +6173,7 @@
       <c r="L78" s="9"/>
     </row>
     <row r="79" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="91">
+      <c r="A79" s="83">
         <v>44756</v>
       </c>
       <c r="B79" s="14">
@@ -6202,7 +6195,7 @@
       <c r="L79" s="9"/>
     </row>
     <row r="80" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="91">
+      <c r="A80" s="83">
         <v>44757</v>
       </c>
       <c r="B80" s="14">
@@ -6224,7 +6217,7 @@
       <c r="L80" s="9"/>
     </row>
     <row r="81" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="91">
+      <c r="A81" s="83">
         <v>44758</v>
       </c>
       <c r="B81" s="14">
@@ -6246,7 +6239,7 @@
       <c r="L81" s="9"/>
     </row>
     <row r="82" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="91">
+      <c r="A82" s="83">
         <v>44759</v>
       </c>
       <c r="B82" s="14">
@@ -6268,7 +6261,7 @@
       <c r="L82" s="9"/>
     </row>
     <row r="83" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="91">
+      <c r="A83" s="83">
         <v>44760</v>
       </c>
       <c r="B83" s="14">
@@ -6290,7 +6283,7 @@
       <c r="L83" s="9"/>
     </row>
     <row r="84" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="91">
+      <c r="A84" s="83">
         <v>44761</v>
       </c>
       <c r="B84" s="14">
@@ -6312,7 +6305,7 @@
       <c r="L84" s="9"/>
     </row>
     <row r="85" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="91">
+      <c r="A85" s="83">
         <v>44762</v>
       </c>
       <c r="B85" s="14">
@@ -6334,7 +6327,7 @@
       <c r="L85" s="9"/>
     </row>
     <row r="86" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="91">
+      <c r="A86" s="83">
         <v>44763</v>
       </c>
       <c r="B86" s="14">
@@ -6356,7 +6349,7 @@
       <c r="L86" s="9"/>
     </row>
     <row r="87" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="91">
+      <c r="A87" s="83">
         <v>44764</v>
       </c>
       <c r="B87" s="14">
@@ -6378,7 +6371,7 @@
       <c r="L87" s="9"/>
     </row>
     <row r="88" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="91">
+      <c r="A88" s="83">
         <v>44765</v>
       </c>
       <c r="B88" s="14">
@@ -6400,7 +6393,7 @@
       <c r="L88" s="9"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="91">
+      <c r="A89" s="83">
         <v>44766</v>
       </c>
       <c r="B89" s="14">
@@ -6428,7 +6421,7 @@
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="91">
+      <c r="A90" s="83">
         <v>44767</v>
       </c>
       <c r="B90" s="14">
@@ -6456,7 +6449,7 @@
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="91">
+      <c r="A91" s="83">
         <v>44768</v>
       </c>
       <c r="B91" s="14">
@@ -6484,7 +6477,7 @@
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="91">
+      <c r="A92" s="83">
         <v>44769</v>
       </c>
       <c r="B92" s="14">
@@ -6506,7 +6499,7 @@
       <c r="L92" s="53"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="91">
+      <c r="A93" s="83">
         <v>44770</v>
       </c>
       <c r="B93" s="14">
@@ -6528,7 +6521,7 @@
       <c r="L93" s="53"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="91">
+      <c r="A94" s="83">
         <v>44771</v>
       </c>
       <c r="B94" s="14">
@@ -6550,7 +6543,7 @@
       <c r="L94" s="9"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="91">
+      <c r="A95" s="83">
         <v>44772</v>
       </c>
       <c r="B95" s="14">
@@ -6572,7 +6565,7 @@
       <c r="L95" s="9"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="91">
+      <c r="A96" s="83">
         <v>44773</v>
       </c>
       <c r="B96" s="14">
@@ -6594,7 +6587,7 @@
       <c r="L96" s="9"/>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="91">
+      <c r="A97" s="83">
         <v>44774</v>
       </c>
       <c r="B97" s="14">
@@ -6616,7 +6609,7 @@
       <c r="L97" s="9"/>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="91">
+      <c r="A98" s="83">
         <v>44775</v>
       </c>
       <c r="B98" s="14">
@@ -6638,7 +6631,7 @@
       <c r="L98" s="9"/>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" s="91">
+      <c r="A99" s="83">
         <v>44776</v>
       </c>
       <c r="B99" s="14">
@@ -6660,7 +6653,7 @@
       <c r="L99" s="9"/>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="91">
+      <c r="A100" s="83">
         <v>44777</v>
       </c>
       <c r="B100" s="14">
@@ -6682,7 +6675,7 @@
       <c r="L100" s="9"/>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="91">
+      <c r="A101" s="83">
         <v>44778</v>
       </c>
       <c r="B101" s="14">
@@ -6704,7 +6697,7 @@
       <c r="L101" s="9"/>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" s="91">
+      <c r="A102" s="83">
         <v>44779</v>
       </c>
       <c r="B102" s="14">
@@ -6726,7 +6719,7 @@
       <c r="L102" s="9"/>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" s="91">
+      <c r="A103" s="83">
         <v>44780</v>
       </c>
       <c r="B103" s="14">
@@ -6748,7 +6741,7 @@
       <c r="L103" s="9"/>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A104" s="91">
+      <c r="A104" s="83">
         <v>44781</v>
       </c>
       <c r="B104" s="14">
@@ -6770,7 +6763,7 @@
       <c r="L104" s="9"/>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A105" s="91">
+      <c r="A105" s="83">
         <v>44782</v>
       </c>
       <c r="B105" s="14">
@@ -6792,7 +6785,7 @@
       <c r="L105" s="9"/>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A106" s="91">
+      <c r="A106" s="83">
         <v>44783</v>
       </c>
       <c r="B106" s="14">
@@ -6814,7 +6807,7 @@
       <c r="L106" s="9"/>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" s="91">
+      <c r="A107" s="83">
         <v>44784</v>
       </c>
       <c r="B107" s="14">
@@ -6836,7 +6829,7 @@
       <c r="L107" s="9"/>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" s="91">
+      <c r="A108" s="83">
         <v>44785</v>
       </c>
       <c r="B108" s="14">
@@ -6858,7 +6851,7 @@
       <c r="L108" s="9"/>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" s="91">
+      <c r="A109" s="83">
         <v>44786</v>
       </c>
       <c r="B109" s="14">
@@ -6880,7 +6873,7 @@
       <c r="L109" s="9"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" s="91">
+      <c r="A110" s="83">
         <v>44787</v>
       </c>
       <c r="B110" s="14">
@@ -6902,7 +6895,7 @@
       <c r="L110" s="9"/>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" s="91">
+      <c r="A111" s="83">
         <v>44788</v>
       </c>
       <c r="B111" s="14">
@@ -6924,7 +6917,7 @@
       <c r="L111" s="9"/>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" s="91">
+      <c r="A112" s="83">
         <v>44789</v>
       </c>
       <c r="B112" s="14">
@@ -6946,7 +6939,7 @@
       <c r="L112" s="9"/>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" s="91">
+      <c r="A113" s="83">
         <v>44790</v>
       </c>
       <c r="B113" s="14">
@@ -6968,7 +6961,7 @@
       <c r="L113" s="9"/>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="91">
+      <c r="A114" s="83">
         <v>44791</v>
       </c>
       <c r="B114" s="14">
@@ -6990,7 +6983,7 @@
       <c r="L114" s="9"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="91">
+      <c r="A115" s="83">
         <v>44792</v>
       </c>
       <c r="B115" s="14">
@@ -7012,7 +7005,7 @@
       <c r="L115" s="9"/>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="91">
+      <c r="A116" s="83">
         <v>44793</v>
       </c>
       <c r="B116" s="14">
@@ -7034,7 +7027,7 @@
       <c r="L116" s="9"/>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" s="91">
+      <c r="A117" s="83">
         <v>44794</v>
       </c>
       <c r="B117" s="14">
@@ -7056,7 +7049,7 @@
       <c r="L117" s="9"/>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" s="91">
+      <c r="A118" s="83">
         <v>44795</v>
       </c>
       <c r="B118" s="14">
@@ -7078,7 +7071,7 @@
       <c r="L118" s="9"/>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A119" s="91">
+      <c r="A119" s="83">
         <v>44796</v>
       </c>
       <c r="B119" s="14">
@@ -7100,7 +7093,7 @@
       <c r="L119" s="9"/>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A120" s="91">
+      <c r="A120" s="83">
         <v>44797</v>
       </c>
       <c r="B120" s="14">
@@ -7122,7 +7115,7 @@
       <c r="L120" s="9"/>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A121" s="91">
+      <c r="A121" s="83">
         <v>44798</v>
       </c>
       <c r="B121" s="14">
@@ -7144,7 +7137,7 @@
       <c r="L121" s="9"/>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A122" s="91">
+      <c r="A122" s="83">
         <v>44799</v>
       </c>
       <c r="B122" s="14">
@@ -7166,7 +7159,7 @@
       <c r="L122" s="9"/>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A123" s="91">
+      <c r="A123" s="83">
         <v>44800</v>
       </c>
       <c r="B123" s="14">
@@ -7188,7 +7181,7 @@
       <c r="L123" s="9"/>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" s="91">
+      <c r="A124" s="83">
         <v>44801</v>
       </c>
       <c r="B124" s="14">
@@ -7210,7 +7203,7 @@
       <c r="L124" s="9"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="91">
+      <c r="A125" s="83">
         <v>44802</v>
       </c>
       <c r="B125" s="14">
@@ -7232,7 +7225,7 @@
       <c r="L125" s="9"/>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="91">
+      <c r="A126" s="83">
         <v>44803</v>
       </c>
       <c r="B126" s="14">
@@ -7254,7 +7247,7 @@
       <c r="L126" s="9"/>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" s="91">
+      <c r="A127" s="83">
         <v>44804</v>
       </c>
       <c r="B127" s="14">
@@ -7276,7 +7269,7 @@
       <c r="L127" s="9"/>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A128" s="91">
+      <c r="A128" s="83">
         <v>44805</v>
       </c>
       <c r="B128" s="14">
@@ -7298,7 +7291,7 @@
       <c r="L128" s="9"/>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A129" s="91">
+      <c r="A129" s="83">
         <v>44806</v>
       </c>
       <c r="B129" s="14">
@@ -7320,7 +7313,7 @@
       <c r="L129" s="9"/>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A130" s="91">
+      <c r="A130" s="83">
         <v>44807</v>
       </c>
       <c r="B130" s="14">
@@ -7342,7 +7335,7 @@
       <c r="L130" s="9"/>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A131" s="91">
+      <c r="A131" s="83">
         <v>44808</v>
       </c>
       <c r="B131" s="14">
@@ -7364,7 +7357,7 @@
       <c r="L131" s="9"/>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A132" s="91">
+      <c r="A132" s="83">
         <v>44809</v>
       </c>
       <c r="B132" s="14">
@@ -7386,7 +7379,7 @@
       <c r="L132" s="9"/>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A133" s="91">
+      <c r="A133" s="83">
         <v>44810</v>
       </c>
       <c r="B133" s="14">
@@ -7408,7 +7401,7 @@
       <c r="L133" s="9"/>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A134" s="91">
+      <c r="A134" s="83">
         <v>44811</v>
       </c>
       <c r="B134" s="14">
@@ -7430,7 +7423,7 @@
       <c r="L134" s="9"/>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A135" s="91">
+      <c r="A135" s="83">
         <v>44812</v>
       </c>
       <c r="B135" s="14">
@@ -7493,18 +7486,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
       <c r="K1" s="67"/>
       <c r="L1" s="12"/>
     </row>
@@ -7562,13 +7555,13 @@
       <c r="E4" s="45"/>
       <c r="F4" s="45"/>
       <c r="G4" s="68"/>
-      <c r="H4" s="79" t="s">
+      <c r="H4" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="84"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="97"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="47"/>
@@ -7580,11 +7573,11 @@
       <c r="E5" s="50"/>
       <c r="F5" s="51"/>
       <c r="G5" s="52"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="85"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="98"/>
     </row>
     <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
@@ -8302,7 +8295,7 @@
       <c r="L35" s="9"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="91">
+      <c r="A36" s="83">
         <v>44713</v>
       </c>
       <c r="B36" s="14">
@@ -8324,7 +8317,7 @@
       <c r="L36" s="16"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="91">
+      <c r="A37" s="83">
         <v>44714</v>
       </c>
       <c r="B37" s="14">
@@ -8346,7 +8339,7 @@
       <c r="L37" s="9"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="91">
+      <c r="A38" s="83">
         <v>44715</v>
       </c>
       <c r="B38" s="14">
@@ -8368,7 +8361,7 @@
       <c r="L38" s="9"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="91">
+      <c r="A39" s="83">
         <v>44716</v>
       </c>
       <c r="B39" s="14">
@@ -8390,7 +8383,7 @@
       <c r="L39" s="9"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="91">
+      <c r="A40" s="83">
         <v>44717</v>
       </c>
       <c r="B40" s="14">
@@ -8412,7 +8405,7 @@
       <c r="L40" s="9"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="91">
+      <c r="A41" s="83">
         <v>44718</v>
       </c>
       <c r="B41" s="14">
@@ -8434,7 +8427,7 @@
       <c r="L41" s="9"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="91">
+      <c r="A42" s="83">
         <v>44719</v>
       </c>
       <c r="B42" s="14">
@@ -8456,7 +8449,7 @@
       <c r="L42" s="9"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="91">
+      <c r="A43" s="83">
         <v>44720</v>
       </c>
       <c r="B43" s="14">
@@ -8480,7 +8473,7 @@
       <c r="L43" s="9"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="91">
+      <c r="A44" s="83">
         <v>44721</v>
       </c>
       <c r="B44" s="14">
@@ -8506,7 +8499,7 @@
       <c r="L44" s="17"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="91">
+      <c r="A45" s="83">
         <v>44722</v>
       </c>
       <c r="B45" s="14">
@@ -8528,7 +8521,7 @@
       <c r="L45" s="9"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="91">
+      <c r="A46" s="83">
         <v>44723</v>
       </c>
       <c r="B46" s="14">
@@ -8550,7 +8543,7 @@
       <c r="L46" s="9"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="91">
+      <c r="A47" s="83">
         <v>44724</v>
       </c>
       <c r="B47" s="14">
@@ -8572,7 +8565,7 @@
       <c r="L47" s="9"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="91">
+      <c r="A48" s="83">
         <v>44725</v>
       </c>
       <c r="B48" s="14">
@@ -8594,7 +8587,7 @@
       <c r="L48" s="9"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="91">
+      <c r="A49" s="83">
         <v>44726</v>
       </c>
       <c r="B49" s="14">
@@ -8618,7 +8611,7 @@
       <c r="L49" s="9"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="91">
+      <c r="A50" s="83">
         <v>44727</v>
       </c>
       <c r="B50" s="14">
@@ -8640,7 +8633,7 @@
       <c r="L50" s="9"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="91">
+      <c r="A51" s="83">
         <v>44728</v>
       </c>
       <c r="B51" s="14">
@@ -8662,7 +8655,7 @@
       <c r="L51" s="9"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="91">
+      <c r="A52" s="83">
         <v>44729</v>
       </c>
       <c r="B52" s="14">
@@ -8688,7 +8681,7 @@
         <v>44722</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K52" s="53"/>
       <c r="L52" s="9" t="s">
@@ -8696,7 +8689,7 @@
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="91">
+      <c r="A53" s="83">
         <v>44730</v>
       </c>
       <c r="B53" s="14">
@@ -8718,7 +8711,7 @@
       <c r="L53" s="53"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="91">
+      <c r="A54" s="83">
         <v>44731</v>
       </c>
       <c r="B54" s="14">
@@ -8740,7 +8733,7 @@
       <c r="L54" s="53"/>
     </row>
     <row r="55" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="91">
+      <c r="A55" s="83">
         <v>44732</v>
       </c>
       <c r="B55" s="14">
@@ -8762,7 +8755,7 @@
       <c r="L55" s="9"/>
     </row>
     <row r="56" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="91">
+      <c r="A56" s="83">
         <v>44733</v>
       </c>
       <c r="B56" s="14">
@@ -8784,7 +8777,7 @@
       <c r="L56" s="9"/>
     </row>
     <row r="57" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="91">
+      <c r="A57" s="83">
         <v>44734</v>
       </c>
       <c r="B57" s="14">
@@ -8808,7 +8801,7 @@
       <c r="L57" s="9"/>
     </row>
     <row r="58" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="91">
+      <c r="A58" s="83">
         <v>44735</v>
       </c>
       <c r="B58" s="14">
@@ -8830,7 +8823,7 @@
       <c r="L58" s="10"/>
     </row>
     <row r="59" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="91">
+      <c r="A59" s="83">
         <v>44736</v>
       </c>
       <c r="B59" s="14">
@@ -8852,7 +8845,7 @@
       <c r="L59" s="9"/>
     </row>
     <row r="60" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="91">
+      <c r="A60" s="83">
         <v>44737</v>
       </c>
       <c r="B60" s="14">
@@ -8874,7 +8867,7 @@
       <c r="L60" s="9"/>
     </row>
     <row r="61" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="91">
+      <c r="A61" s="83">
         <v>44738</v>
       </c>
       <c r="B61" s="14">
@@ -8896,7 +8889,7 @@
       <c r="L61" s="17"/>
     </row>
     <row r="62" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="91">
+      <c r="A62" s="83">
         <v>44739</v>
       </c>
       <c r="B62" s="14">
@@ -8918,7 +8911,7 @@
       <c r="L62" s="9"/>
     </row>
     <row r="63" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="91">
+      <c r="A63" s="83">
         <v>44740</v>
       </c>
       <c r="B63" s="14">
@@ -8940,7 +8933,7 @@
       <c r="L63" s="9"/>
     </row>
     <row r="64" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="91">
+      <c r="A64" s="83">
         <v>44741</v>
       </c>
       <c r="B64" s="14">
@@ -8962,7 +8955,7 @@
       <c r="L64" s="9"/>
     </row>
     <row r="65" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="91">
+      <c r="A65" s="83">
         <v>44742</v>
       </c>
       <c r="B65" s="14">
@@ -8984,7 +8977,7 @@
       <c r="L65" s="9"/>
     </row>
     <row r="66" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="91">
+      <c r="A66" s="83">
         <v>44743</v>
       </c>
       <c r="B66" s="14">
@@ -9006,7 +8999,7 @@
       <c r="L66" s="9"/>
     </row>
     <row r="67" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="91">
+      <c r="A67" s="83">
         <v>44744</v>
       </c>
       <c r="B67" s="14">
@@ -9028,7 +9021,7 @@
       <c r="L67" s="9"/>
     </row>
     <row r="68" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="91">
+      <c r="A68" s="83">
         <v>44745</v>
       </c>
       <c r="B68" s="14">
@@ -9050,7 +9043,7 @@
       <c r="L68" s="9"/>
     </row>
     <row r="69" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="91">
+      <c r="A69" s="83">
         <v>44746</v>
       </c>
       <c r="B69" s="14">
@@ -9072,7 +9065,7 @@
       <c r="L69" s="17"/>
     </row>
     <row r="70" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="91">
+      <c r="A70" s="83">
         <v>44747</v>
       </c>
       <c r="B70" s="14">
@@ -9094,7 +9087,7 @@
       <c r="L70" s="17"/>
     </row>
     <row r="71" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="91">
+      <c r="A71" s="83">
         <v>44748</v>
       </c>
       <c r="B71" s="14">
@@ -9116,7 +9109,7 @@
       <c r="L71" s="17"/>
     </row>
     <row r="72" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="91">
+      <c r="A72" s="83">
         <v>44749</v>
       </c>
       <c r="B72" s="14">
@@ -9138,7 +9131,7 @@
       <c r="L72" s="17"/>
     </row>
     <row r="73" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="91">
+      <c r="A73" s="83">
         <v>44750</v>
       </c>
       <c r="B73" s="14">
@@ -9160,7 +9153,7 @@
       <c r="L73" s="9"/>
     </row>
     <row r="74" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="91">
+      <c r="A74" s="83">
         <v>44751</v>
       </c>
       <c r="B74" s="14">
@@ -9182,7 +9175,7 @@
       <c r="L74" s="9"/>
     </row>
     <row r="75" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="91">
+      <c r="A75" s="83">
         <v>44752</v>
       </c>
       <c r="B75" s="14">
@@ -9204,7 +9197,7 @@
       <c r="L75" s="9"/>
     </row>
     <row r="76" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="91">
+      <c r="A76" s="83">
         <v>44753</v>
       </c>
       <c r="B76" s="14">
@@ -9226,7 +9219,7 @@
       <c r="L76" s="17"/>
     </row>
     <row r="77" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="91">
+      <c r="A77" s="83">
         <v>44754</v>
       </c>
       <c r="B77" s="14">
@@ -9248,7 +9241,7 @@
       <c r="L77" s="9"/>
     </row>
     <row r="78" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="91">
+      <c r="A78" s="83">
         <v>44755</v>
       </c>
       <c r="B78" s="14">
@@ -9270,7 +9263,7 @@
       <c r="L78" s="9"/>
     </row>
     <row r="79" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="91">
+      <c r="A79" s="83">
         <v>44756</v>
       </c>
       <c r="B79" s="14">
@@ -9292,7 +9285,7 @@
       <c r="L79" s="9"/>
     </row>
     <row r="80" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="91">
+      <c r="A80" s="83">
         <v>44757</v>
       </c>
       <c r="B80" s="14">
@@ -9314,7 +9307,7 @@
       <c r="L80" s="9"/>
     </row>
     <row r="81" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="91">
+      <c r="A81" s="83">
         <v>44758</v>
       </c>
       <c r="B81" s="14">
@@ -9334,9 +9327,9 @@
         <v>17</v>
       </c>
       <c r="H81" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="I81" s="88">
+        <v>92</v>
+      </c>
+      <c r="I81" s="80">
         <v>44764</v>
       </c>
       <c r="J81" s="9"/>
@@ -9344,7 +9337,7 @@
       <c r="L81" s="9"/>
     </row>
     <row r="82" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="91">
+      <c r="A82" s="83">
         <v>44759</v>
       </c>
       <c r="B82" s="14">
@@ -9364,9 +9357,9 @@
         <v>17</v>
       </c>
       <c r="H82" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="I82" s="88">
+        <v>93</v>
+      </c>
+      <c r="I82" s="80">
         <v>44764</v>
       </c>
       <c r="J82" s="9"/>
@@ -9374,7 +9367,7 @@
       <c r="L82" s="9"/>
     </row>
     <row r="83" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="91">
+      <c r="A83" s="83">
         <v>44760</v>
       </c>
       <c r="B83" s="14">
@@ -9396,7 +9389,7 @@
       <c r="L83" s="9"/>
     </row>
     <row r="84" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="91">
+      <c r="A84" s="83">
         <v>44761</v>
       </c>
       <c r="B84" s="14">
@@ -9418,7 +9411,7 @@
       <c r="L84" s="9"/>
     </row>
     <row r="85" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="91">
+      <c r="A85" s="83">
         <v>44762</v>
       </c>
       <c r="B85" s="14">
@@ -9440,7 +9433,7 @@
       <c r="L85" s="9"/>
     </row>
     <row r="86" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="91">
+      <c r="A86" s="83">
         <v>44763</v>
       </c>
       <c r="B86" s="14">
@@ -9462,7 +9455,7 @@
       <c r="L86" s="9"/>
     </row>
     <row r="87" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="91">
+      <c r="A87" s="83">
         <v>44764</v>
       </c>
       <c r="B87" s="14">
@@ -9484,7 +9477,7 @@
       <c r="L87" s="9"/>
     </row>
     <row r="88" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="91">
+      <c r="A88" s="83">
         <v>44765</v>
       </c>
       <c r="B88" s="14">
@@ -9506,7 +9499,7 @@
       <c r="L88" s="9"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="91">
+      <c r="A89" s="83">
         <v>44766</v>
       </c>
       <c r="B89" s="14">
@@ -9528,7 +9521,7 @@
       <c r="L89" s="53"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="91">
+      <c r="A90" s="83">
         <v>44767</v>
       </c>
       <c r="B90" s="14">
@@ -9550,7 +9543,7 @@
       <c r="L90" s="53"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="91">
+      <c r="A91" s="83">
         <v>44768</v>
       </c>
       <c r="B91" s="14">
@@ -9578,7 +9571,7 @@
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="91">
+      <c r="A92" s="83">
         <v>44769</v>
       </c>
       <c r="B92" s="14">
@@ -9606,7 +9599,7 @@
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="91">
+      <c r="A93" s="83">
         <v>44770</v>
       </c>
       <c r="B93" s="14">
@@ -9634,7 +9627,7 @@
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="91">
+      <c r="A94" s="83">
         <v>44771</v>
       </c>
       <c r="B94" s="14">
@@ -9662,7 +9655,7 @@
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="91">
+      <c r="A95" s="83">
         <v>44772</v>
       </c>
       <c r="B95" s="14">
@@ -9684,7 +9677,7 @@
       <c r="L95" s="9"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="91">
+      <c r="A96" s="83">
         <v>44773</v>
       </c>
       <c r="B96" s="14">
@@ -9706,7 +9699,7 @@
       <c r="L96" s="9"/>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="91">
+      <c r="A97" s="83">
         <v>44774</v>
       </c>
       <c r="B97" s="14">
@@ -9728,7 +9721,7 @@
       <c r="L97" s="9"/>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="91">
+      <c r="A98" s="83">
         <v>44775</v>
       </c>
       <c r="B98" s="14">
@@ -9750,7 +9743,7 @@
       <c r="L98" s="9"/>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" s="91">
+      <c r="A99" s="83">
         <v>44776</v>
       </c>
       <c r="B99" s="14">
@@ -9772,7 +9765,7 @@
       <c r="L99" s="9"/>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="91">
+      <c r="A100" s="83">
         <v>44777</v>
       </c>
       <c r="B100" s="14">
@@ -9794,7 +9787,7 @@
       <c r="L100" s="9"/>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="91">
+      <c r="A101" s="83">
         <v>44778</v>
       </c>
       <c r="B101" s="14">
@@ -9816,7 +9809,7 @@
       <c r="L101" s="9"/>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" s="91">
+      <c r="A102" s="83">
         <v>44779</v>
       </c>
       <c r="B102" s="14">
@@ -9838,7 +9831,7 @@
       <c r="L102" s="9"/>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" s="91">
+      <c r="A103" s="83">
         <v>44780</v>
       </c>
       <c r="B103" s="14">
@@ -9860,7 +9853,7 @@
       <c r="L103" s="9"/>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A104" s="91">
+      <c r="A104" s="83">
         <v>44781</v>
       </c>
       <c r="B104" s="14">
@@ -9882,7 +9875,7 @@
       <c r="L104" s="9"/>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A105" s="91">
+      <c r="A105" s="83">
         <v>44782</v>
       </c>
       <c r="B105" s="14">
@@ -9904,7 +9897,7 @@
       <c r="L105" s="9"/>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A106" s="91">
+      <c r="A106" s="83">
         <v>44783</v>
       </c>
       <c r="B106" s="14">
@@ -9926,7 +9919,7 @@
       <c r="L106" s="9"/>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" s="91">
+      <c r="A107" s="83">
         <v>44784</v>
       </c>
       <c r="B107" s="14">
@@ -9948,7 +9941,7 @@
       <c r="L107" s="9"/>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" s="91">
+      <c r="A108" s="83">
         <v>44785</v>
       </c>
       <c r="B108" s="14">
@@ -9970,7 +9963,7 @@
       <c r="L108" s="9"/>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" s="91">
+      <c r="A109" s="83">
         <v>44786</v>
       </c>
       <c r="B109" s="14">
@@ -9992,7 +9985,7 @@
       <c r="L109" s="9"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" s="91">
+      <c r="A110" s="83">
         <v>44787</v>
       </c>
       <c r="B110" s="14">
@@ -10014,7 +10007,7 @@
       <c r="L110" s="9"/>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" s="91">
+      <c r="A111" s="83">
         <v>44788</v>
       </c>
       <c r="B111" s="14">
@@ -10036,7 +10029,7 @@
       <c r="L111" s="9"/>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" s="91">
+      <c r="A112" s="83">
         <v>44789</v>
       </c>
       <c r="B112" s="14">
@@ -10058,7 +10051,7 @@
       <c r="L112" s="9"/>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" s="91">
+      <c r="A113" s="83">
         <v>44790</v>
       </c>
       <c r="B113" s="14">
@@ -10080,7 +10073,7 @@
       <c r="L113" s="9"/>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="91">
+      <c r="A114" s="83">
         <v>44791</v>
       </c>
       <c r="B114" s="14">
@@ -10102,7 +10095,7 @@
       <c r="L114" s="9"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="91">
+      <c r="A115" s="83">
         <v>44792</v>
       </c>
       <c r="B115" s="14">
@@ -10124,7 +10117,7 @@
       <c r="L115" s="9"/>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="91">
+      <c r="A116" s="83">
         <v>44793</v>
       </c>
       <c r="B116" s="14">
@@ -10146,7 +10139,7 @@
       <c r="L116" s="9"/>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" s="91">
+      <c r="A117" s="83">
         <v>44794</v>
       </c>
       <c r="B117" s="14">
@@ -10168,7 +10161,7 @@
       <c r="L117" s="9"/>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" s="91">
+      <c r="A118" s="83">
         <v>44795</v>
       </c>
       <c r="B118" s="14">
@@ -10190,7 +10183,7 @@
       <c r="L118" s="9"/>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A119" s="91">
+      <c r="A119" s="83">
         <v>44796</v>
       </c>
       <c r="B119" s="14">
@@ -10212,7 +10205,7 @@
       <c r="L119" s="9"/>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A120" s="91">
+      <c r="A120" s="83">
         <v>44797</v>
       </c>
       <c r="B120" s="14">
@@ -10234,7 +10227,7 @@
       <c r="L120" s="9"/>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A121" s="91">
+      <c r="A121" s="83">
         <v>44798</v>
       </c>
       <c r="B121" s="14">
@@ -10256,7 +10249,7 @@
       <c r="L121" s="9"/>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A122" s="91">
+      <c r="A122" s="83">
         <v>44799</v>
       </c>
       <c r="B122" s="14">
@@ -10278,7 +10271,7 @@
       <c r="L122" s="9"/>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A123" s="91">
+      <c r="A123" s="83">
         <v>44800</v>
       </c>
       <c r="B123" s="14">
@@ -10300,7 +10293,7 @@
       <c r="L123" s="9"/>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" s="91">
+      <c r="A124" s="83">
         <v>44801</v>
       </c>
       <c r="B124" s="14">
@@ -10322,7 +10315,7 @@
       <c r="L124" s="9"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="91">
+      <c r="A125" s="83">
         <v>44802</v>
       </c>
       <c r="B125" s="14">
@@ -10344,7 +10337,7 @@
       <c r="L125" s="9"/>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="91">
+      <c r="A126" s="83">
         <v>44803</v>
       </c>
       <c r="B126" s="14">
@@ -10366,7 +10359,7 @@
       <c r="L126" s="9"/>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" s="91">
+      <c r="A127" s="83">
         <v>44804</v>
       </c>
       <c r="B127" s="14">
@@ -10388,7 +10381,7 @@
       <c r="L127" s="9"/>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A128" s="91">
+      <c r="A128" s="83">
         <v>44805</v>
       </c>
       <c r="B128" s="14">
@@ -10410,7 +10403,7 @@
       <c r="L128" s="9"/>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A129" s="91">
+      <c r="A129" s="83">
         <v>44806</v>
       </c>
       <c r="B129" s="14">
@@ -10432,7 +10425,7 @@
       <c r="L129" s="9"/>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A130" s="91">
+      <c r="A130" s="83">
         <v>44807</v>
       </c>
       <c r="B130" s="14">
@@ -10454,7 +10447,7 @@
       <c r="L130" s="9"/>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A131" s="91">
+      <c r="A131" s="83">
         <v>44808</v>
       </c>
       <c r="B131" s="14">
@@ -10476,7 +10469,7 @@
       <c r="L131" s="9"/>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A132" s="91">
+      <c r="A132" s="83">
         <v>44809</v>
       </c>
       <c r="B132" s="14">
@@ -10498,7 +10491,7 @@
       <c r="L132" s="9"/>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A133" s="91">
+      <c r="A133" s="83">
         <v>44810</v>
       </c>
       <c r="B133" s="14">
@@ -10520,7 +10513,7 @@
       <c r="L133" s="9"/>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A134" s="91">
+      <c r="A134" s="83">
         <v>44811</v>
       </c>
       <c r="B134" s="14">
@@ -10542,7 +10535,7 @@
       <c r="L134" s="9"/>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A135" s="91">
+      <c r="A135" s="83">
         <v>44812</v>
       </c>
       <c r="B135" s="14">
@@ -10581,11 +10574,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A486E942-04B3-4B14-913F-21181F27113E}">
   <dimension ref="A1:L134"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A34" sqref="A34:A134"/>
+      <selection pane="bottomRight" activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -10604,18 +10597,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
       <c r="K1" s="12"/>
       <c r="L1" s="12"/>
     </row>
@@ -10633,13 +10626,13 @@
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="86" t="s">
+      <c r="H2" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
@@ -10655,11 +10648,11 @@
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
@@ -10681,13 +10674,13 @@
         <v>62</v>
       </c>
       <c r="G4" s="36"/>
-      <c r="H4" s="79" t="s">
+      <c r="H4" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="84"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="97"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24"/>
@@ -10707,11 +10700,11 @@
         <v>63</v>
       </c>
       <c r="G5" s="37"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="85"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="98"/>
     </row>
     <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
@@ -11368,7 +11361,7 @@
       <c r="L33" s="9"/>
     </row>
     <row r="34" spans="1:12" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="90">
+      <c r="A34" s="82">
         <v>44712</v>
       </c>
       <c r="B34" s="73">
@@ -11389,7 +11382,7 @@
       <c r="L34" s="9"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="91">
+      <c r="A35" s="83">
         <v>44713</v>
       </c>
       <c r="B35" s="14">
@@ -11411,7 +11404,7 @@
       <c r="L35" s="16"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="91">
+      <c r="A36" s="83">
         <v>44714</v>
       </c>
       <c r="B36" s="14">
@@ -11433,7 +11426,7 @@
       <c r="L36" s="9"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="91">
+      <c r="A37" s="83">
         <v>44715</v>
       </c>
       <c r="B37" s="14">
@@ -11455,7 +11448,7 @@
       <c r="L37" s="9"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="91">
+      <c r="A38" s="83">
         <v>44716</v>
       </c>
       <c r="B38" s="14">
@@ -11477,7 +11470,7 @@
       <c r="L38" s="9"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="91">
+      <c r="A39" s="83">
         <v>44717</v>
       </c>
       <c r="B39" s="14">
@@ -11499,7 +11492,7 @@
       <c r="L39" s="9"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="91">
+      <c r="A40" s="83">
         <v>44718</v>
       </c>
       <c r="B40" s="14">
@@ -11521,7 +11514,7 @@
       <c r="L40" s="9"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="91">
+      <c r="A41" s="83">
         <v>44719</v>
       </c>
       <c r="B41" s="14">
@@ -11543,7 +11536,7 @@
       <c r="L41" s="9"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="91">
+      <c r="A42" s="83">
         <v>44720</v>
       </c>
       <c r="B42" s="14">
@@ -11569,7 +11562,7 @@
       <c r="L42" s="9"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="91">
+      <c r="A43" s="83">
         <v>44721</v>
       </c>
       <c r="B43" s="14">
@@ -11595,7 +11588,7 @@
       <c r="L43" s="17"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="91">
+      <c r="A44" s="83">
         <v>44722</v>
       </c>
       <c r="B44" s="14">
@@ -11621,7 +11614,7 @@
       <c r="L44" s="9"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="91">
+      <c r="A45" s="83">
         <v>44723</v>
       </c>
       <c r="B45" s="14">
@@ -11643,7 +11636,7 @@
       <c r="L45" s="9"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="91">
+      <c r="A46" s="83">
         <v>44724</v>
       </c>
       <c r="B46" s="14">
@@ -11665,7 +11658,7 @@
       <c r="L46" s="9"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="91">
+      <c r="A47" s="83">
         <v>44725</v>
       </c>
       <c r="B47" s="14">
@@ -11687,7 +11680,7 @@
       <c r="L47" s="9"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="91">
+      <c r="A48" s="83">
         <v>44726</v>
       </c>
       <c r="B48" s="14">
@@ -11709,17 +11702,17 @@
       <c r="H48" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="I48" s="87">
+      <c r="I48" s="79">
         <v>44722</v>
       </c>
       <c r="J48" s="32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="91">
+      <c r="A49" s="83">
         <v>44727</v>
       </c>
       <c r="B49" s="14">
@@ -11741,17 +11734,17 @@
       <c r="H49" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="I49" s="87">
+      <c r="I49" s="79">
         <v>44723</v>
       </c>
       <c r="J49" s="32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="91">
+      <c r="A50" s="83">
         <v>44728</v>
       </c>
       <c r="B50" s="14">
@@ -11773,17 +11766,17 @@
       <c r="H50" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="I50" s="87">
+      <c r="I50" s="79">
         <v>44723</v>
       </c>
       <c r="J50" s="32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="91">
+      <c r="A51" s="83">
         <v>44729</v>
       </c>
       <c r="B51" s="14">
@@ -11799,13 +11792,13 @@
       </c>
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
-      <c r="I51" s="88"/>
+      <c r="I51" s="80"/>
       <c r="J51" s="9"/>
       <c r="K51" s="53"/>
       <c r="L51" s="53"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="91">
+      <c r="A52" s="83">
         <v>44730</v>
       </c>
       <c r="B52" s="14">
@@ -11821,13 +11814,13 @@
       </c>
       <c r="G52" s="5"/>
       <c r="H52" s="29"/>
-      <c r="I52" s="87"/>
+      <c r="I52" s="79"/>
       <c r="J52" s="56"/>
       <c r="K52" s="53"/>
       <c r="L52" s="57"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="91">
+      <c r="A53" s="83">
         <v>44731</v>
       </c>
       <c r="B53" s="14">
@@ -11849,7 +11842,7 @@
       <c r="L53" s="57"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="91">
+      <c r="A54" s="83">
         <v>44732</v>
       </c>
       <c r="B54" s="14">
@@ -11871,7 +11864,7 @@
       <c r="L54" s="57"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="91">
+      <c r="A55" s="83">
         <v>44733</v>
       </c>
       <c r="B55" s="14">
@@ -11893,7 +11886,7 @@
       <c r="L55" s="57"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="91">
+      <c r="A56" s="83">
         <v>44734</v>
       </c>
       <c r="B56" s="14">
@@ -11909,13 +11902,13 @@
       </c>
       <c r="G56" s="9"/>
       <c r="H56" s="9"/>
-      <c r="I56" s="88"/>
+      <c r="I56" s="80"/>
       <c r="J56" s="27"/>
       <c r="K56" s="53"/>
       <c r="L56" s="57"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="91">
+      <c r="A57" s="83">
         <v>44735</v>
       </c>
       <c r="B57" s="14">
@@ -11937,7 +11930,7 @@
       <c r="L57" s="57"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="91">
+      <c r="A58" s="83">
         <v>44736</v>
       </c>
       <c r="B58" s="14">
@@ -11953,13 +11946,13 @@
       </c>
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
-      <c r="I58" s="88"/>
+      <c r="I58" s="80"/>
       <c r="J58" s="27"/>
       <c r="K58" s="53"/>
       <c r="L58" s="57"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="91">
+      <c r="A59" s="83">
         <v>44737</v>
       </c>
       <c r="B59" s="14">
@@ -11975,13 +11968,13 @@
       </c>
       <c r="G59" s="9"/>
       <c r="H59" s="9"/>
-      <c r="I59" s="88"/>
+      <c r="I59" s="80"/>
       <c r="J59" s="27"/>
       <c r="K59" s="53"/>
       <c r="L59" s="57"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="91">
+      <c r="A60" s="83">
         <v>44738</v>
       </c>
       <c r="B60" s="14">
@@ -11997,13 +11990,13 @@
       </c>
       <c r="G60" s="9"/>
       <c r="H60" s="9"/>
-      <c r="I60" s="88"/>
+      <c r="I60" s="80"/>
       <c r="J60" s="27"/>
       <c r="K60" s="53"/>
       <c r="L60" s="57"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="91">
+      <c r="A61" s="83">
         <v>44739</v>
       </c>
       <c r="B61" s="14">
@@ -12019,13 +12012,13 @@
       </c>
       <c r="G61" s="9"/>
       <c r="H61" s="9"/>
-      <c r="I61" s="88"/>
+      <c r="I61" s="80"/>
       <c r="J61" s="27"/>
       <c r="K61" s="53"/>
       <c r="L61" s="57"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="91">
+      <c r="A62" s="83">
         <v>44740</v>
       </c>
       <c r="B62" s="14">
@@ -12041,13 +12034,13 @@
       </c>
       <c r="G62" s="9"/>
       <c r="H62" s="9"/>
-      <c r="I62" s="88"/>
+      <c r="I62" s="80"/>
       <c r="J62" s="27"/>
       <c r="K62" s="53"/>
       <c r="L62" s="57"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="91">
+      <c r="A63" s="83">
         <v>44741</v>
       </c>
       <c r="B63" s="14">
@@ -12063,13 +12056,13 @@
       </c>
       <c r="G63" s="9"/>
       <c r="H63" s="9"/>
-      <c r="I63" s="88"/>
+      <c r="I63" s="80"/>
       <c r="J63" s="27"/>
       <c r="K63" s="53"/>
       <c r="L63" s="57"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="91">
+      <c r="A64" s="83">
         <v>44742</v>
       </c>
       <c r="B64" s="14">
@@ -12085,13 +12078,13 @@
       </c>
       <c r="G64" s="9"/>
       <c r="H64" s="9"/>
-      <c r="I64" s="88"/>
+      <c r="I64" s="80"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c r="L64" s="9"/>
     </row>
     <row r="65" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="91">
+      <c r="A65" s="83">
         <v>44743</v>
       </c>
       <c r="B65" s="14">
@@ -12107,13 +12100,13 @@
       </c>
       <c r="G65" s="9"/>
       <c r="H65" s="9"/>
-      <c r="I65" s="88"/>
+      <c r="I65" s="80"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c r="L65" s="9"/>
     </row>
     <row r="66" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="91">
+      <c r="A66" s="83">
         <v>44744</v>
       </c>
       <c r="B66" s="14">
@@ -12129,13 +12122,13 @@
       </c>
       <c r="G66" s="9"/>
       <c r="H66" s="9"/>
-      <c r="I66" s="88"/>
+      <c r="I66" s="80"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c r="L66" s="9"/>
     </row>
     <row r="67" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="91">
+      <c r="A67" s="83">
         <v>44745</v>
       </c>
       <c r="B67" s="14">
@@ -12157,7 +12150,7 @@
       <c r="H67" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="I67" s="87">
+      <c r="I67" s="79">
         <v>44738</v>
       </c>
       <c r="J67" s="56" t="s">
@@ -12169,7 +12162,7 @@
       </c>
     </row>
     <row r="68" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="91">
+      <c r="A68" s="83">
         <v>44746</v>
       </c>
       <c r="B68" s="14">
@@ -12191,7 +12184,7 @@
       <c r="L68" s="17"/>
     </row>
     <row r="69" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="91">
+      <c r="A69" s="83">
         <v>44747</v>
       </c>
       <c r="B69" s="14">
@@ -12213,7 +12206,7 @@
       <c r="L69" s="17"/>
     </row>
     <row r="70" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="91">
+      <c r="A70" s="83">
         <v>44748</v>
       </c>
       <c r="B70" s="14">
@@ -12235,7 +12228,7 @@
       <c r="L70" s="17"/>
     </row>
     <row r="71" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="91">
+      <c r="A71" s="83">
         <v>44749</v>
       </c>
       <c r="B71" s="14">
@@ -12261,7 +12254,7 @@
         <v>44743</v>
       </c>
       <c r="J71" s="32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K71" s="53"/>
       <c r="L71" s="57" t="s">
@@ -12269,7 +12262,7 @@
       </c>
     </row>
     <row r="72" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="91">
+      <c r="A72" s="83">
         <v>44750</v>
       </c>
       <c r="B72" s="14">
@@ -12295,7 +12288,7 @@
         <v>44743</v>
       </c>
       <c r="J72" s="32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K72" s="9"/>
       <c r="L72" s="57" t="s">
@@ -12303,7 +12296,7 @@
       </c>
     </row>
     <row r="73" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="91">
+      <c r="A73" s="83">
         <v>44751</v>
       </c>
       <c r="B73" s="14">
@@ -12329,7 +12322,7 @@
         <v>44743</v>
       </c>
       <c r="J73" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K73" s="9"/>
       <c r="L73" s="57" t="s">
@@ -12337,7 +12330,7 @@
       </c>
     </row>
     <row r="74" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="91">
+      <c r="A74" s="83">
         <v>44752</v>
       </c>
       <c r="B74" s="14">
@@ -12359,7 +12352,7 @@
       <c r="L74" s="9"/>
     </row>
     <row r="75" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="91">
+      <c r="A75" s="83">
         <v>44753</v>
       </c>
       <c r="B75" s="14">
@@ -12381,7 +12374,7 @@
       <c r="L75" s="17"/>
     </row>
     <row r="76" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="91">
+      <c r="A76" s="83">
         <v>44754</v>
       </c>
       <c r="B76" s="14">
@@ -12405,11 +12398,11 @@
         <v>88</v>
       </c>
       <c r="L76" s="57" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="77" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="91">
+      <c r="A77" s="83">
         <v>44755</v>
       </c>
       <c r="B77" s="14">
@@ -12433,11 +12426,11 @@
         <v>88</v>
       </c>
       <c r="L77" s="57" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="78" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="91">
+      <c r="A78" s="83">
         <v>44756</v>
       </c>
       <c r="B78" s="14">
@@ -12461,11 +12454,11 @@
         <v>88</v>
       </c>
       <c r="L78" s="57" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="79" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="91">
+      <c r="A79" s="83">
         <v>44757</v>
       </c>
       <c r="B79" s="14">
@@ -12489,11 +12482,11 @@
         <v>88</v>
       </c>
       <c r="L79" s="57" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="91">
+      <c r="A80" s="83">
         <v>44758</v>
       </c>
       <c r="B80" s="14">
@@ -12517,11 +12510,11 @@
         <v>88</v>
       </c>
       <c r="L80" s="57" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="91">
+      <c r="A81" s="83">
         <v>44759</v>
       </c>
       <c r="B81" s="14">
@@ -12545,11 +12538,11 @@
         <v>88</v>
       </c>
       <c r="L81" s="57" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="91">
+      <c r="A82" s="83">
         <v>44760</v>
       </c>
       <c r="B82" s="14">
@@ -12571,7 +12564,7 @@
       <c r="L82" s="9"/>
     </row>
     <row r="83" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="91">
+      <c r="A83" s="83">
         <v>44761</v>
       </c>
       <c r="B83" s="14">
@@ -12593,7 +12586,7 @@
       <c r="L83" s="9"/>
     </row>
     <row r="84" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="91">
+      <c r="A84" s="83">
         <v>44762</v>
       </c>
       <c r="B84" s="14">
@@ -12615,7 +12608,7 @@
       <c r="L84" s="9"/>
     </row>
     <row r="85" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="91">
+      <c r="A85" s="83">
         <v>44763</v>
       </c>
       <c r="B85" s="14">
@@ -12637,7 +12630,7 @@
       <c r="L85" s="9"/>
     </row>
     <row r="86" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="91">
+      <c r="A86" s="83">
         <v>44764</v>
       </c>
       <c r="B86" s="14">
@@ -12659,7 +12652,7 @@
       <c r="L86" s="9"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="91">
+      <c r="A87" s="83">
         <v>44765</v>
       </c>
       <c r="B87" s="14">
@@ -12681,7 +12674,7 @@
       <c r="L87" s="9"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="91">
+      <c r="A88" s="83">
         <v>44766</v>
       </c>
       <c r="B88" s="14">
@@ -12703,7 +12696,7 @@
       <c r="L88" s="57"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="91">
+      <c r="A89" s="83">
         <v>44767</v>
       </c>
       <c r="B89" s="14">
@@ -12725,7 +12718,7 @@
       <c r="L89" s="57"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="91">
+      <c r="A90" s="83">
         <v>44768</v>
       </c>
       <c r="B90" s="14">
@@ -12747,7 +12740,7 @@
       <c r="L90" s="57"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="91">
+      <c r="A91" s="83">
         <v>44769</v>
       </c>
       <c r="B91" s="14">
@@ -12769,7 +12762,7 @@
       <c r="L91" s="57"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="91">
+      <c r="A92" s="83">
         <v>44770</v>
       </c>
       <c r="B92" s="14">
@@ -12791,7 +12784,7 @@
       <c r="L92" s="57"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="91">
+      <c r="A93" s="83">
         <v>44771</v>
       </c>
       <c r="B93" s="14">
@@ -12813,7 +12806,7 @@
       <c r="L93" s="9"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="91">
+      <c r="A94" s="83">
         <v>44772</v>
       </c>
       <c r="B94" s="14">
@@ -12835,7 +12828,7 @@
       <c r="L94" s="9"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="91">
+      <c r="A95" s="83">
         <v>44773</v>
       </c>
       <c r="B95" s="14">
@@ -12857,7 +12850,7 @@
       <c r="L95" s="9"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="91">
+      <c r="A96" s="83">
         <v>44774</v>
       </c>
       <c r="B96" s="14">
@@ -12879,7 +12872,7 @@
       <c r="L96" s="9"/>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="91">
+      <c r="A97" s="83">
         <v>44775</v>
       </c>
       <c r="B97" s="14">
@@ -12901,7 +12894,7 @@
       <c r="L97" s="9"/>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="91">
+      <c r="A98" s="83">
         <v>44776</v>
       </c>
       <c r="B98" s="14">
@@ -12923,7 +12916,7 @@
       <c r="L98" s="9"/>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" s="91">
+      <c r="A99" s="83">
         <v>44777</v>
       </c>
       <c r="B99" s="14">
@@ -12945,7 +12938,7 @@
       <c r="L99" s="9"/>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="91">
+      <c r="A100" s="83">
         <v>44778</v>
       </c>
       <c r="B100" s="14">
@@ -12967,7 +12960,7 @@
       <c r="L100" s="9"/>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="91">
+      <c r="A101" s="83">
         <v>44779</v>
       </c>
       <c r="B101" s="14">
@@ -12989,7 +12982,7 @@
       <c r="L101" s="9"/>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" s="91">
+      <c r="A102" s="83">
         <v>44780</v>
       </c>
       <c r="B102" s="14">
@@ -13011,7 +13004,7 @@
       <c r="L102" s="9"/>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" s="91">
+      <c r="A103" s="83">
         <v>44781</v>
       </c>
       <c r="B103" s="14">
@@ -13033,7 +13026,7 @@
       <c r="L103" s="9"/>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A104" s="91">
+      <c r="A104" s="83">
         <v>44782</v>
       </c>
       <c r="B104" s="14">
@@ -13055,7 +13048,7 @@
       <c r="L104" s="9"/>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A105" s="91">
+      <c r="A105" s="83">
         <v>44783</v>
       </c>
       <c r="B105" s="14">
@@ -13077,7 +13070,7 @@
       <c r="L105" s="9"/>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A106" s="91">
+      <c r="A106" s="83">
         <v>44784</v>
       </c>
       <c r="B106" s="14">
@@ -13099,7 +13092,7 @@
       <c r="L106" s="9"/>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" s="91">
+      <c r="A107" s="83">
         <v>44785</v>
       </c>
       <c r="B107" s="14">
@@ -13121,7 +13114,7 @@
       <c r="L107" s="9"/>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" s="91">
+      <c r="A108" s="83">
         <v>44786</v>
       </c>
       <c r="B108" s="14">
@@ -13143,7 +13136,7 @@
       <c r="L108" s="9"/>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" s="91">
+      <c r="A109" s="83">
         <v>44787</v>
       </c>
       <c r="B109" s="14">
@@ -13165,7 +13158,7 @@
       <c r="L109" s="9"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" s="91">
+      <c r="A110" s="83">
         <v>44788</v>
       </c>
       <c r="B110" s="14">
@@ -13187,7 +13180,7 @@
       <c r="L110" s="9"/>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" s="91">
+      <c r="A111" s="83">
         <v>44789</v>
       </c>
       <c r="B111" s="14">
@@ -13209,7 +13202,7 @@
       <c r="L111" s="9"/>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" s="91">
+      <c r="A112" s="83">
         <v>44790</v>
       </c>
       <c r="B112" s="14">
@@ -13231,7 +13224,7 @@
       <c r="L112" s="9"/>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" s="91">
+      <c r="A113" s="83">
         <v>44791</v>
       </c>
       <c r="B113" s="14">
@@ -13253,7 +13246,7 @@
       <c r="L113" s="9"/>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="91">
+      <c r="A114" s="83">
         <v>44792</v>
       </c>
       <c r="B114" s="14">
@@ -13275,7 +13268,7 @@
       <c r="L114" s="9"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="91">
+      <c r="A115" s="83">
         <v>44793</v>
       </c>
       <c r="B115" s="14">
@@ -13297,7 +13290,7 @@
       <c r="L115" s="9"/>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="91">
+      <c r="A116" s="83">
         <v>44794</v>
       </c>
       <c r="B116" s="14">
@@ -13319,7 +13312,7 @@
       <c r="L116" s="9"/>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" s="91">
+      <c r="A117" s="83">
         <v>44795</v>
       </c>
       <c r="B117" s="14">
@@ -13341,7 +13334,7 @@
       <c r="L117" s="9"/>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" s="91">
+      <c r="A118" s="83">
         <v>44796</v>
       </c>
       <c r="B118" s="14">
@@ -13363,7 +13356,7 @@
       <c r="L118" s="9"/>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A119" s="91">
+      <c r="A119" s="83">
         <v>44797</v>
       </c>
       <c r="B119" s="14">
@@ -13385,7 +13378,7 @@
       <c r="L119" s="9"/>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A120" s="91">
+      <c r="A120" s="83">
         <v>44798</v>
       </c>
       <c r="B120" s="14">
@@ -13407,7 +13400,7 @@
       <c r="L120" s="9"/>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A121" s="91">
+      <c r="A121" s="83">
         <v>44799</v>
       </c>
       <c r="B121" s="14">
@@ -13429,7 +13422,7 @@
       <c r="L121" s="9"/>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A122" s="91">
+      <c r="A122" s="83">
         <v>44800</v>
       </c>
       <c r="B122" s="14">
@@ -13451,7 +13444,7 @@
       <c r="L122" s="9"/>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A123" s="91">
+      <c r="A123" s="83">
         <v>44801</v>
       </c>
       <c r="B123" s="14">
@@ -13473,7 +13466,7 @@
       <c r="L123" s="9"/>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" s="91">
+      <c r="A124" s="83">
         <v>44802</v>
       </c>
       <c r="B124" s="14">
@@ -13495,7 +13488,7 @@
       <c r="L124" s="9"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="91">
+      <c r="A125" s="83">
         <v>44803</v>
       </c>
       <c r="B125" s="14">
@@ -13517,7 +13510,7 @@
       <c r="L125" s="9"/>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="91">
+      <c r="A126" s="83">
         <v>44804</v>
       </c>
       <c r="B126" s="14">
@@ -13539,7 +13532,7 @@
       <c r="L126" s="9"/>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" s="91">
+      <c r="A127" s="83">
         <v>44805</v>
       </c>
       <c r="B127" s="14">
@@ -13561,7 +13554,7 @@
       <c r="L127" s="9"/>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A128" s="91">
+      <c r="A128" s="83">
         <v>44806</v>
       </c>
       <c r="B128" s="14">
@@ -13583,7 +13576,7 @@
       <c r="L128" s="9"/>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A129" s="91">
+      <c r="A129" s="83">
         <v>44807</v>
       </c>
       <c r="B129" s="14">
@@ -13605,7 +13598,7 @@
       <c r="L129" s="9"/>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A130" s="91">
+      <c r="A130" s="83">
         <v>44808</v>
       </c>
       <c r="B130" s="14">
@@ -13627,7 +13620,7 @@
       <c r="L130" s="9"/>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A131" s="91">
+      <c r="A131" s="83">
         <v>44809</v>
       </c>
       <c r="B131" s="14">
@@ -13649,7 +13642,7 @@
       <c r="L131" s="9"/>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A132" s="91">
+      <c r="A132" s="83">
         <v>44810</v>
       </c>
       <c r="B132" s="14">
@@ -13671,7 +13664,7 @@
       <c r="L132" s="9"/>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A133" s="91">
+      <c r="A133" s="83">
         <v>44811</v>
       </c>
       <c r="B133" s="14">
@@ -13693,7 +13686,7 @@
       <c r="L133" s="9"/>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A134" s="91">
+      <c r="A134" s="83">
         <v>44812</v>
       </c>
       <c r="B134" s="14">
@@ -13733,11 +13726,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7057F8B6-9101-4C13-91AF-E26F5D1DB815}">
   <dimension ref="A1:L134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="6" topLeftCell="B40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H43" sqref="H43"/>
+      <selection pane="bottomRight" activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -13754,18 +13747,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
       <c r="K1" s="12"/>
       <c r="L1" s="12"/>
     </row>
@@ -13783,13 +13776,13 @@
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="86" t="s">
+      <c r="H2" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
@@ -13803,11 +13796,11 @@
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
@@ -13829,13 +13822,13 @@
         <v>62</v>
       </c>
       <c r="G4" s="36"/>
-      <c r="H4" s="79" t="s">
+      <c r="H4" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="84"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="97"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24"/>
@@ -13855,11 +13848,11 @@
         <v>63</v>
       </c>
       <c r="G5" s="37"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="85"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="98"/>
     </row>
     <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
@@ -13897,7 +13890,7 @@
       </c>
       <c r="L6" s="12"/>
     </row>
-    <row r="7" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28">
         <v>44681</v>
       </c>
@@ -13913,7 +13906,7 @@
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
     </row>
-    <row r="8" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
         <v>44681</v>
       </c>
@@ -13929,7 +13922,7 @@
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
     </row>
-    <row r="9" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>44681</v>
       </c>
@@ -13945,7 +13938,7 @@
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
     </row>
-    <row r="10" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28">
         <v>44681</v>
       </c>
@@ -13961,7 +13954,7 @@
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
     </row>
-    <row r="11" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>44687</v>
       </c>
@@ -13983,7 +13976,7 @@
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
     </row>
-    <row r="12" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>44687</v>
       </c>
@@ -14005,7 +13998,7 @@
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
     </row>
-    <row r="13" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>44691</v>
       </c>
@@ -14027,7 +14020,7 @@
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
     </row>
-    <row r="14" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>44692</v>
       </c>
@@ -14049,7 +14042,7 @@
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
     </row>
-    <row r="15" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>44693</v>
       </c>
@@ -14071,7 +14064,7 @@
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
     </row>
-    <row r="16" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>44694</v>
       </c>
@@ -14093,7 +14086,7 @@
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
     </row>
-    <row r="17" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>44695</v>
       </c>
@@ -14115,7 +14108,7 @@
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
     </row>
-    <row r="18" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>44696</v>
       </c>
@@ -14137,7 +14130,7 @@
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
     </row>
-    <row r="19" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>44697</v>
       </c>
@@ -14159,7 +14152,7 @@
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
     </row>
-    <row r="20" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>44698</v>
       </c>
@@ -14181,7 +14174,7 @@
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
     </row>
-    <row r="21" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>44699</v>
       </c>
@@ -14203,7 +14196,7 @@
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
     </row>
-    <row r="22" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>44700</v>
       </c>
@@ -14225,7 +14218,7 @@
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
     </row>
-    <row r="23" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>44701</v>
       </c>
@@ -14247,7 +14240,7 @@
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
     </row>
-    <row r="24" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>44702</v>
       </c>
@@ -14269,7 +14262,7 @@
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
     </row>
-    <row r="25" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>44703</v>
       </c>
@@ -14291,7 +14284,7 @@
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
     </row>
-    <row r="26" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>44704</v>
       </c>
@@ -14313,7 +14306,7 @@
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
     </row>
-    <row r="27" spans="1:12" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>44705</v>
       </c>
@@ -14329,7 +14322,7 @@
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
     </row>
-    <row r="28" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>44706</v>
       </c>
@@ -14345,7 +14338,7 @@
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
     </row>
-    <row r="29" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>44707</v>
       </c>
@@ -14361,7 +14354,7 @@
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
     </row>
-    <row r="30" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>44708</v>
       </c>
@@ -14377,7 +14370,7 @@
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
     </row>
-    <row r="31" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>44709</v>
       </c>
@@ -14393,7 +14386,7 @@
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
     </row>
-    <row r="32" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>44710</v>
       </c>
@@ -14409,8 +14402,8 @@
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
     </row>
-    <row r="33" spans="1:12" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="91">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="83">
         <v>44711</v>
       </c>
       <c r="B33" s="14">
@@ -14431,7 +14424,7 @@
       <c r="L33" s="9"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="94">
+      <c r="A34" s="86">
         <v>44712</v>
       </c>
       <c r="B34" s="61">
@@ -14453,7 +14446,7 @@
       <c r="L34" s="63"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="94">
+      <c r="A35" s="86">
         <v>44713</v>
       </c>
       <c r="B35" s="61">
@@ -14475,7 +14468,7 @@
       <c r="L35" s="64"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="94">
+      <c r="A36" s="86">
         <v>44714</v>
       </c>
       <c r="B36" s="61">
@@ -14497,7 +14490,7 @@
       <c r="L36" s="63"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="94">
+      <c r="A37" s="86">
         <v>44715</v>
       </c>
       <c r="B37" s="61">
@@ -14519,7 +14512,7 @@
       <c r="L37" s="63"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="94">
+      <c r="A38" s="86">
         <v>44716</v>
       </c>
       <c r="B38" s="61">
@@ -14541,7 +14534,7 @@
       <c r="L38" s="63"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="94">
+      <c r="A39" s="86">
         <v>44717</v>
       </c>
       <c r="B39" s="61">
@@ -14563,7 +14556,7 @@
       <c r="L39" s="63"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="94">
+      <c r="A40" s="86">
         <v>44718</v>
       </c>
       <c r="B40" s="61">
@@ -14585,7 +14578,7 @@
       <c r="L40" s="63"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="94">
+      <c r="A41" s="86">
         <v>44719</v>
       </c>
       <c r="B41" s="61">
@@ -14607,7 +14600,7 @@
       <c r="L41" s="63"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="94">
+      <c r="A42" s="86">
         <v>44720</v>
       </c>
       <c r="B42" s="61">
@@ -14629,7 +14622,7 @@
       <c r="L42" s="63"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="91">
+      <c r="A43" s="83">
         <v>44721</v>
       </c>
       <c r="B43" s="14">
@@ -14657,7 +14650,7 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="91">
+      <c r="A44" s="83">
         <v>44722</v>
       </c>
       <c r="B44" s="14">
@@ -14685,7 +14678,7 @@
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="91">
+      <c r="A45" s="83">
         <v>44723</v>
       </c>
       <c r="B45" s="14">
@@ -14713,7 +14706,7 @@
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="94">
+      <c r="A46" s="86">
         <v>44724</v>
       </c>
       <c r="B46" s="61">
@@ -14735,7 +14728,7 @@
       <c r="L46" s="63"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="94">
+      <c r="A47" s="86">
         <v>44725</v>
       </c>
       <c r="B47" s="61">
@@ -14757,7 +14750,7 @@
       <c r="L47" s="63"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="91">
+      <c r="A48" s="83">
         <v>44726</v>
       </c>
       <c r="B48" s="14">
@@ -14779,7 +14772,7 @@
       <c r="L48" s="63"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="91">
+      <c r="A49" s="83">
         <v>44727</v>
       </c>
       <c r="B49" s="14">
@@ -14799,17 +14792,17 @@
       <c r="H49" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="I49" s="87">
+      <c r="I49" s="79">
         <v>44723</v>
       </c>
       <c r="J49" s="41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K49" s="63"/>
       <c r="L49" s="63"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="91">
+      <c r="A50" s="83">
         <v>44728</v>
       </c>
       <c r="B50" s="14">
@@ -14829,17 +14822,17 @@
       <c r="H50" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="I50" s="87">
+      <c r="I50" s="79">
         <v>44723</v>
       </c>
       <c r="J50" s="41" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K50" s="63"/>
       <c r="L50" s="63"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="91">
+      <c r="A51" s="83">
         <v>44729</v>
       </c>
       <c r="B51" s="14">
@@ -14861,17 +14854,17 @@
       <c r="H51" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="I51" s="87">
+      <c r="I51" s="79">
         <v>44723</v>
       </c>
       <c r="J51" s="41" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K51" s="63"/>
       <c r="L51" s="63"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="91">
+      <c r="A52" s="83">
         <v>44730</v>
       </c>
       <c r="B52" s="14">
@@ -14893,11 +14886,11 @@
       <c r="H52" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="I52" s="87">
+      <c r="I52" s="79">
         <v>44731</v>
       </c>
       <c r="J52" s="41" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K52" s="53"/>
       <c r="L52" s="57" t="s">
@@ -14905,7 +14898,7 @@
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="91">
+      <c r="A53" s="83">
         <v>44731</v>
       </c>
       <c r="B53" s="14">
@@ -14931,7 +14924,7 @@
         <v>44738</v>
       </c>
       <c r="J53" s="41" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K53" s="53"/>
       <c r="L53" s="9" t="s">
@@ -14939,7 +14932,7 @@
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="91">
+      <c r="A54" s="83">
         <v>44732</v>
       </c>
       <c r="B54" s="14">
@@ -14965,7 +14958,7 @@
         <v>44738</v>
       </c>
       <c r="J54" s="41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K54" s="9"/>
       <c r="L54" s="9" t="s">
@@ -14973,7 +14966,7 @@
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="91">
+      <c r="A55" s="83">
         <v>44733</v>
       </c>
       <c r="B55" s="14">
@@ -14999,7 +14992,7 @@
         <v>44743</v>
       </c>
       <c r="J55" s="41" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K55" s="9"/>
       <c r="L55" s="9" t="s">
@@ -15007,7 +15000,7 @@
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="91">
+      <c r="A56" s="83">
         <v>44734</v>
       </c>
       <c r="B56" s="14">
@@ -15035,7 +15028,7 @@
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="91">
+      <c r="A57" s="83">
         <v>44735</v>
       </c>
       <c r="B57" s="14">
@@ -15063,7 +15056,7 @@
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="91">
+      <c r="A58" s="83">
         <v>44736</v>
       </c>
       <c r="B58" s="14">
@@ -15091,7 +15084,7 @@
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="91">
+      <c r="A59" s="83">
         <v>44737</v>
       </c>
       <c r="B59" s="14">
@@ -15119,7 +15112,7 @@
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="91">
+      <c r="A60" s="83">
         <v>44738</v>
       </c>
       <c r="B60" s="14">
@@ -15147,7 +15140,7 @@
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="91">
+      <c r="A61" s="83">
         <v>44739</v>
       </c>
       <c r="B61" s="14">
@@ -15175,7 +15168,7 @@
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="91">
+      <c r="A62" s="83">
         <v>44740</v>
       </c>
       <c r="B62" s="14">
@@ -15203,7 +15196,7 @@
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="91">
+      <c r="A63" s="83">
         <v>44741</v>
       </c>
       <c r="B63" s="14">
@@ -15231,7 +15224,7 @@
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="91">
+      <c r="A64" s="83">
         <v>44742</v>
       </c>
       <c r="B64" s="14">
@@ -15253,7 +15246,7 @@
       <c r="L64" s="9"/>
     </row>
     <row r="65" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="91">
+      <c r="A65" s="83">
         <v>44743</v>
       </c>
       <c r="B65" s="14">
@@ -15275,7 +15268,7 @@
       <c r="L65" s="9"/>
     </row>
     <row r="66" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="91">
+      <c r="A66" s="83">
         <v>44744</v>
       </c>
       <c r="B66" s="14">
@@ -15297,7 +15290,7 @@
       <c r="L66" s="9"/>
     </row>
     <row r="67" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="91">
+      <c r="A67" s="83">
         <v>44745</v>
       </c>
       <c r="B67" s="14">
@@ -15319,7 +15312,7 @@
       <c r="L67" s="9"/>
     </row>
     <row r="68" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="91">
+      <c r="A68" s="83">
         <v>44746</v>
       </c>
       <c r="B68" s="14">
@@ -15341,7 +15334,7 @@
       <c r="L68" s="17"/>
     </row>
     <row r="69" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="91">
+      <c r="A69" s="83">
         <v>44747</v>
       </c>
       <c r="B69" s="14">
@@ -15363,7 +15356,7 @@
       <c r="L69" s="17"/>
     </row>
     <row r="70" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="91">
+      <c r="A70" s="83">
         <v>44748</v>
       </c>
       <c r="B70" s="14">
@@ -15385,7 +15378,7 @@
       <c r="L70" s="17"/>
     </row>
     <row r="71" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="91">
+      <c r="A71" s="83">
         <v>44749</v>
       </c>
       <c r="B71" s="14">
@@ -15407,7 +15400,7 @@
       <c r="L71" s="17"/>
     </row>
     <row r="72" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="91">
+      <c r="A72" s="83">
         <v>44750</v>
       </c>
       <c r="B72" s="14">
@@ -15429,7 +15422,7 @@
       <c r="L72" s="9"/>
     </row>
     <row r="73" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="91">
+      <c r="A73" s="83">
         <v>44751</v>
       </c>
       <c r="B73" s="14">
@@ -15451,7 +15444,7 @@
       <c r="L73" s="9"/>
     </row>
     <row r="74" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="91">
+      <c r="A74" s="83">
         <v>44752</v>
       </c>
       <c r="B74" s="14">
@@ -15473,7 +15466,7 @@
       <c r="L74" s="9"/>
     </row>
     <row r="75" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="91">
+      <c r="A75" s="83">
         <v>44753</v>
       </c>
       <c r="B75" s="14">
@@ -15495,7 +15488,7 @@
       <c r="L75" s="17"/>
     </row>
     <row r="76" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="91">
+      <c r="A76" s="83">
         <v>44754</v>
       </c>
       <c r="B76" s="14">
@@ -15517,7 +15510,7 @@
       <c r="L76" s="9"/>
     </row>
     <row r="77" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="91">
+      <c r="A77" s="83">
         <v>44755</v>
       </c>
       <c r="B77" s="14">
@@ -15539,7 +15532,7 @@
       <c r="L77" s="9"/>
     </row>
     <row r="78" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="91">
+      <c r="A78" s="83">
         <v>44756</v>
       </c>
       <c r="B78" s="14">
@@ -15561,7 +15554,7 @@
       <c r="L78" s="9"/>
     </row>
     <row r="79" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="91">
+      <c r="A79" s="83">
         <v>44757</v>
       </c>
       <c r="B79" s="14">
@@ -15583,7 +15576,7 @@
       <c r="L79" s="9"/>
     </row>
     <row r="80" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="91">
+      <c r="A80" s="83">
         <v>44758</v>
       </c>
       <c r="B80" s="14">
@@ -15605,7 +15598,7 @@
       <c r="L80" s="9"/>
     </row>
     <row r="81" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="91">
+      <c r="A81" s="83">
         <v>44759</v>
       </c>
       <c r="B81" s="14">
@@ -15627,7 +15620,7 @@
       <c r="L81" s="9"/>
     </row>
     <row r="82" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="91">
+      <c r="A82" s="83">
         <v>44760</v>
       </c>
       <c r="B82" s="14">
@@ -15649,7 +15642,7 @@
       <c r="L82" s="9"/>
     </row>
     <row r="83" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="91">
+      <c r="A83" s="83">
         <v>44761</v>
       </c>
       <c r="B83" s="14">
@@ -15671,7 +15664,7 @@
       <c r="L83" s="9"/>
     </row>
     <row r="84" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="91">
+      <c r="A84" s="83">
         <v>44762</v>
       </c>
       <c r="B84" s="14">
@@ -15693,7 +15686,7 @@
       <c r="L84" s="9"/>
     </row>
     <row r="85" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="91">
+      <c r="A85" s="83">
         <v>44763</v>
       </c>
       <c r="B85" s="14">
@@ -15715,7 +15708,7 @@
       <c r="L85" s="9"/>
     </row>
     <row r="86" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="91">
+      <c r="A86" s="83">
         <v>44764</v>
       </c>
       <c r="B86" s="14">
@@ -15737,7 +15730,7 @@
       <c r="L86" s="9"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="91">
+      <c r="A87" s="83">
         <v>44765</v>
       </c>
       <c r="B87" s="14">
@@ -15759,7 +15752,7 @@
       <c r="L87" s="9"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="91">
+      <c r="A88" s="83">
         <v>44766</v>
       </c>
       <c r="B88" s="14">
@@ -15787,7 +15780,7 @@
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="91">
+      <c r="A89" s="83">
         <v>44767</v>
       </c>
       <c r="B89" s="14">
@@ -15815,7 +15808,7 @@
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="91">
+      <c r="A90" s="83">
         <v>44768</v>
       </c>
       <c r="B90" s="14">
@@ -15843,7 +15836,7 @@
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="91">
+      <c r="A91" s="83">
         <v>44769</v>
       </c>
       <c r="B91" s="14">
@@ -15871,7 +15864,7 @@
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="91">
+      <c r="A92" s="83">
         <v>44770</v>
       </c>
       <c r="B92" s="14">
@@ -15899,7 +15892,7 @@
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="91">
+      <c r="A93" s="83">
         <v>44771</v>
       </c>
       <c r="B93" s="14">
@@ -15927,7 +15920,7 @@
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="91">
+      <c r="A94" s="83">
         <v>44772</v>
       </c>
       <c r="B94" s="14">
@@ -15955,7 +15948,7 @@
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="91">
+      <c r="A95" s="83">
         <v>44773</v>
       </c>
       <c r="B95" s="14">
@@ -15983,7 +15976,7 @@
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="91">
+      <c r="A96" s="83">
         <v>44774</v>
       </c>
       <c r="B96" s="14">
@@ -16011,7 +16004,7 @@
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="91">
+      <c r="A97" s="83">
         <v>44775</v>
       </c>
       <c r="B97" s="14">
@@ -16039,7 +16032,7 @@
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="91">
+      <c r="A98" s="83">
         <v>44776</v>
       </c>
       <c r="B98" s="14">
@@ -16067,7 +16060,7 @@
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" s="91">
+      <c r="A99" s="83">
         <v>44777</v>
       </c>
       <c r="B99" s="14">
@@ -16095,7 +16088,7 @@
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="91">
+      <c r="A100" s="83">
         <v>44778</v>
       </c>
       <c r="B100" s="14">
@@ -16123,7 +16116,7 @@
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="91">
+      <c r="A101" s="83">
         <v>44779</v>
       </c>
       <c r="B101" s="14">
@@ -16145,7 +16138,7 @@
       <c r="L101" s="9"/>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" s="91">
+      <c r="A102" s="83">
         <v>44780</v>
       </c>
       <c r="B102" s="14">
@@ -16167,7 +16160,7 @@
       <c r="L102" s="9"/>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" s="91">
+      <c r="A103" s="83">
         <v>44781</v>
       </c>
       <c r="B103" s="14">
@@ -16189,7 +16182,7 @@
       <c r="L103" s="9"/>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A104" s="91">
+      <c r="A104" s="83">
         <v>44782</v>
       </c>
       <c r="B104" s="14">
@@ -16211,7 +16204,7 @@
       <c r="L104" s="9"/>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A105" s="91">
+      <c r="A105" s="83">
         <v>44783</v>
       </c>
       <c r="B105" s="14">
@@ -16233,7 +16226,7 @@
       <c r="L105" s="9"/>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A106" s="91">
+      <c r="A106" s="83">
         <v>44784</v>
       </c>
       <c r="B106" s="14">
@@ -16255,7 +16248,7 @@
       <c r="L106" s="9"/>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" s="91">
+      <c r="A107" s="83">
         <v>44785</v>
       </c>
       <c r="B107" s="14">
@@ -16277,7 +16270,7 @@
       <c r="L107" s="9"/>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" s="91">
+      <c r="A108" s="83">
         <v>44786</v>
       </c>
       <c r="B108" s="14">
@@ -16299,7 +16292,7 @@
       <c r="L108" s="9"/>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" s="91">
+      <c r="A109" s="83">
         <v>44787</v>
       </c>
       <c r="B109" s="14">
@@ -16321,7 +16314,7 @@
       <c r="L109" s="9"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" s="91">
+      <c r="A110" s="83">
         <v>44788</v>
       </c>
       <c r="B110" s="14">
@@ -16343,7 +16336,7 @@
       <c r="L110" s="9"/>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" s="91">
+      <c r="A111" s="83">
         <v>44789</v>
       </c>
       <c r="B111" s="14">
@@ -16365,7 +16358,7 @@
       <c r="L111" s="9"/>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" s="91">
+      <c r="A112" s="83">
         <v>44790</v>
       </c>
       <c r="B112" s="14">
@@ -16387,7 +16380,7 @@
       <c r="L112" s="9"/>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" s="91">
+      <c r="A113" s="83">
         <v>44791</v>
       </c>
       <c r="B113" s="14">
@@ -16409,7 +16402,7 @@
       <c r="L113" s="9"/>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="91">
+      <c r="A114" s="83">
         <v>44792</v>
       </c>
       <c r="B114" s="14">
@@ -16431,7 +16424,7 @@
       <c r="L114" s="9"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="91">
+      <c r="A115" s="83">
         <v>44793</v>
       </c>
       <c r="B115" s="14">
@@ -16453,7 +16446,7 @@
       <c r="L115" s="9"/>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="91">
+      <c r="A116" s="83">
         <v>44794</v>
       </c>
       <c r="B116" s="14">
@@ -16475,7 +16468,7 @@
       <c r="L116" s="9"/>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" s="91">
+      <c r="A117" s="83">
         <v>44795</v>
       </c>
       <c r="B117" s="14">
@@ -16497,7 +16490,7 @@
       <c r="L117" s="9"/>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" s="91">
+      <c r="A118" s="83">
         <v>44796</v>
       </c>
       <c r="B118" s="14">
@@ -16519,7 +16512,7 @@
       <c r="L118" s="9"/>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A119" s="91">
+      <c r="A119" s="83">
         <v>44797</v>
       </c>
       <c r="B119" s="14">
@@ -16541,7 +16534,7 @@
       <c r="L119" s="9"/>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A120" s="91">
+      <c r="A120" s="83">
         <v>44798</v>
       </c>
       <c r="B120" s="14">
@@ -16563,7 +16556,7 @@
       <c r="L120" s="9"/>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A121" s="91">
+      <c r="A121" s="83">
         <v>44799</v>
       </c>
       <c r="B121" s="14">
@@ -16585,7 +16578,7 @@
       <c r="L121" s="9"/>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A122" s="91">
+      <c r="A122" s="83">
         <v>44800</v>
       </c>
       <c r="B122" s="14">
@@ -16607,7 +16600,7 @@
       <c r="L122" s="9"/>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A123" s="91">
+      <c r="A123" s="83">
         <v>44801</v>
       </c>
       <c r="B123" s="14">
@@ -16629,7 +16622,7 @@
       <c r="L123" s="9"/>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" s="91">
+      <c r="A124" s="83">
         <v>44802</v>
       </c>
       <c r="B124" s="14">
@@ -16651,7 +16644,7 @@
       <c r="L124" s="9"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="91">
+      <c r="A125" s="83">
         <v>44803</v>
       </c>
       <c r="B125" s="14">
@@ -16673,7 +16666,7 @@
       <c r="L125" s="9"/>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="91">
+      <c r="A126" s="83">
         <v>44804</v>
       </c>
       <c r="B126" s="14">
@@ -16695,7 +16688,7 @@
       <c r="L126" s="9"/>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" s="91">
+      <c r="A127" s="83">
         <v>44805</v>
       </c>
       <c r="B127" s="14">
@@ -16717,7 +16710,7 @@
       <c r="L127" s="9"/>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A128" s="91">
+      <c r="A128" s="83">
         <v>44806</v>
       </c>
       <c r="B128" s="14">
@@ -16739,7 +16732,7 @@
       <c r="L128" s="9"/>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A129" s="91">
+      <c r="A129" s="83">
         <v>44807</v>
       </c>
       <c r="B129" s="14">
@@ -16761,7 +16754,7 @@
       <c r="L129" s="9"/>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A130" s="91">
+      <c r="A130" s="83">
         <v>44808</v>
       </c>
       <c r="B130" s="14">
@@ -16783,7 +16776,7 @@
       <c r="L130" s="9"/>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A131" s="91">
+      <c r="A131" s="83">
         <v>44809</v>
       </c>
       <c r="B131" s="14">
@@ -16805,7 +16798,7 @@
       <c r="L131" s="9"/>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A132" s="91">
+      <c r="A132" s="83">
         <v>44810</v>
       </c>
       <c r="B132" s="14">
@@ -16827,7 +16820,7 @@
       <c r="L132" s="9"/>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A133" s="91">
+      <c r="A133" s="83">
         <v>44811</v>
       </c>
       <c r="B133" s="14">
@@ -16849,7 +16842,7 @@
       <c r="L133" s="9"/>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A134" s="91">
+      <c r="A134" s="83">
         <v>44812</v>
       </c>
       <c r="B134" s="14">
